--- a/data/GPAT/trial01a.xlsx
+++ b/data/GPAT/trial01a.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danduffek/labkey/trunk_all/server/testAutomation/data/GPAT/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F8B14F-46A7-8649-9811-2F1391C6D007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13095" yWindow="3630" windowWidth="2895" windowHeight="4755"/>
+    <workbookView xWindow="5500" yWindow="4820" windowWidth="26040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="216">
   <si>
     <t>SpecimenID</t>
   </si>
@@ -656,16 +662,22 @@
   </si>
   <si>
     <t>text</t>
+  </si>
+  <si>
+    <t>DateOnly</t>
+  </si>
+  <si>
+    <t>TimeOnly</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\-mmm\-yy"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -676,6 +688,12 @@
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -702,27 +720,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 6" xfId="1"/>
+    <cellStyle name="Normal 6" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -760,7 +788,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -794,6 +822,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -828,9 +857,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1003,28 +1033,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I202"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1037,23 +1068,29 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1064,22 +1101,28 @@
         <v>104</v>
       </c>
       <c r="D2" s="2">
+        <v>40225.168055555558</v>
+      </c>
+      <c r="E2" s="2">
         <v>40225</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="5">
+        <v>0.16805555555555557</v>
+      </c>
+      <c r="G2" t="s">
         <v>8</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
-        <v>24</v>
-      </c>
       <c r="I2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1090,22 +1133,28 @@
         <v>105</v>
       </c>
       <c r="D3" s="2">
+        <v>40232.427777777775</v>
+      </c>
+      <c r="E3" s="2">
         <v>40232</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" s="5">
+        <v>0.42777777777777776</v>
+      </c>
+      <c r="G3" t="s">
         <v>9</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>2</v>
       </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
       <c r="I3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1116,22 +1165,28 @@
         <v>106</v>
       </c>
       <c r="D4" s="2">
+        <v>40260.777083333334</v>
+      </c>
+      <c r="E4" s="2">
         <v>40260</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" s="5">
+        <v>0.77708333333333335</v>
+      </c>
+      <c r="G4" t="s">
         <v>10</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>3</v>
       </c>
-      <c r="G4" t="s">
-        <v>24</v>
-      </c>
       <c r="I4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1142,22 +1197,28 @@
         <v>108</v>
       </c>
       <c r="D5" s="2">
+        <v>39653.395833333336</v>
+      </c>
+      <c r="E5" s="2">
         <v>39653</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" s="5">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="G5" t="s">
         <v>11</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>4</v>
       </c>
-      <c r="G5" t="s">
-        <v>24</v>
-      </c>
       <c r="I5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1168,22 +1229,28 @@
         <v>108</v>
       </c>
       <c r="D6" s="2">
+        <v>39672.75277777778</v>
+      </c>
+      <c r="E6" s="2">
         <v>39672</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" s="5">
+        <v>0.75277777777777777</v>
+      </c>
+      <c r="G6" t="s">
         <v>13</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>5</v>
       </c>
-      <c r="G6" t="s">
-        <v>24</v>
-      </c>
       <c r="I6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1194,22 +1261,28 @@
         <v>109</v>
       </c>
       <c r="D7" s="2">
+        <v>39700.067361111112</v>
+      </c>
+      <c r="E7" s="2">
         <v>39700</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" s="5">
+        <v>6.7361111111111108E-2</v>
+      </c>
+      <c r="G7" t="s">
         <v>14</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>6</v>
       </c>
-      <c r="G7" t="s">
-        <v>24</v>
-      </c>
       <c r="I7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1220,22 +1293,28 @@
         <v>109</v>
       </c>
       <c r="D8" s="2">
+        <v>39709.434027777781</v>
+      </c>
+      <c r="E8" s="2">
         <v>39709</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" s="5">
+        <v>0.43402777777777779</v>
+      </c>
+      <c r="G8" t="s">
         <v>12</v>
       </c>
-      <c r="F8">
-        <v>7</v>
-      </c>
-      <c r="G8" t="s">
-        <v>24</v>
+      <c r="H8">
+        <v>7</v>
       </c>
       <c r="I8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1246,22 +1325,28 @@
         <v>103</v>
       </c>
       <c r="D9" s="2">
+        <v>40053.102083333331</v>
+      </c>
+      <c r="E9" s="2">
         <v>40053</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" s="5">
+        <v>0.10208333333333333</v>
+      </c>
+      <c r="G9" t="s">
         <v>15</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>8</v>
       </c>
-      <c r="G9" t="s">
-        <v>24</v>
-      </c>
       <c r="I9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1272,22 +1357,28 @@
         <v>104</v>
       </c>
       <c r="D10" s="2">
+        <v>40060.038194444445</v>
+      </c>
+      <c r="E10" s="2">
         <v>40060</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" s="5">
+        <v>3.8194444444444448E-2</v>
+      </c>
+      <c r="G10" t="s">
         <v>16</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>9</v>
       </c>
-      <c r="G10" t="s">
-        <v>24</v>
-      </c>
       <c r="I10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1298,22 +1389,28 @@
         <v>105</v>
       </c>
       <c r="D11" s="2">
+        <v>40066.003472222219</v>
+      </c>
+      <c r="E11" s="2">
         <v>40066</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" s="5">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="G11" t="s">
         <v>17</v>
       </c>
-      <c r="F11">
+      <c r="H11">
         <v>10</v>
       </c>
-      <c r="G11" t="s">
-        <v>24</v>
-      </c>
       <c r="I11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1324,22 +1421,28 @@
         <v>106</v>
       </c>
       <c r="D12" s="2">
+        <v>40094.268055555556</v>
+      </c>
+      <c r="E12" s="2">
         <v>40094</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" s="5">
+        <v>0.26805555555555555</v>
+      </c>
+      <c r="G12" t="s">
         <v>18</v>
       </c>
-      <c r="F12">
+      <c r="H12">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>24</v>
-      </c>
       <c r="I12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1350,22 +1453,28 @@
         <v>104</v>
       </c>
       <c r="D13" s="2">
+        <v>40045.5</v>
+      </c>
+      <c r="E13" s="2">
         <v>40045</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G13" t="s">
         <v>19</v>
       </c>
-      <c r="F13">
+      <c r="H13">
         <v>12</v>
       </c>
-      <c r="G13" t="s">
-        <v>24</v>
-      </c>
       <c r="I13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1376,22 +1485,28 @@
         <v>105</v>
       </c>
       <c r="D14" s="2">
+        <v>40052.747916666667</v>
+      </c>
+      <c r="E14" s="2">
         <v>40052</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" s="5">
+        <v>0.74791666666666667</v>
+      </c>
+      <c r="G14" t="s">
         <v>20</v>
       </c>
-      <c r="F14">
+      <c r="H14">
         <v>13</v>
       </c>
-      <c r="G14" t="s">
-        <v>24</v>
-      </c>
       <c r="I14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -1402,22 +1517,28 @@
         <v>106</v>
       </c>
       <c r="D15" s="2">
+        <v>40081.659722222219</v>
+      </c>
+      <c r="E15" s="2">
         <v>40081</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" s="5">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="G15" t="s">
         <v>21</v>
       </c>
-      <c r="F15">
+      <c r="H15">
         <v>14</v>
       </c>
-      <c r="G15" t="s">
-        <v>24</v>
-      </c>
       <c r="I15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1428,22 +1549,28 @@
         <v>107</v>
       </c>
       <c r="D16" s="2">
+        <v>39968.975694444445</v>
+      </c>
+      <c r="E16" s="2">
         <v>39968</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" s="5">
+        <v>0.97569444444444442</v>
+      </c>
+      <c r="G16" t="s">
         <v>22</v>
       </c>
-      <c r="F16">
+      <c r="H16">
         <v>15</v>
       </c>
-      <c r="G16" t="s">
-        <v>24</v>
-      </c>
       <c r="I16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1454,22 +1581,28 @@
         <v>108</v>
       </c>
       <c r="D17" s="2">
+        <v>39996.338888888888</v>
+      </c>
+      <c r="E17" s="2">
         <v>39996</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" s="5">
+        <v>0.33888888888888891</v>
+      </c>
+      <c r="G17" t="s">
         <v>23</v>
       </c>
-      <c r="F17">
+      <c r="H17">
         <v>16</v>
       </c>
-      <c r="G17" t="s">
-        <v>24</v>
-      </c>
       <c r="I17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1480,22 +1613,28 @@
         <v>104</v>
       </c>
       <c r="D18" s="2">
+        <v>40225.046527777777</v>
+      </c>
+      <c r="E18" s="2">
         <v>40225</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" s="5">
+        <v>4.6527777777777779E-2</v>
+      </c>
+      <c r="G18" t="s">
         <v>27</v>
       </c>
-      <c r="F18">
+      <c r="H18">
         <v>17</v>
       </c>
-      <c r="G18" t="s">
-        <v>24</v>
-      </c>
       <c r="I18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1506,22 +1645,28 @@
         <v>105</v>
       </c>
       <c r="D19" s="2">
+        <v>40232.668055555558</v>
+      </c>
+      <c r="E19" s="2">
         <v>40232</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" s="5">
+        <v>0.66805555555555551</v>
+      </c>
+      <c r="G19" t="s">
         <v>28</v>
       </c>
-      <c r="F19">
+      <c r="H19">
         <v>18</v>
       </c>
-      <c r="G19" t="s">
-        <v>24</v>
-      </c>
       <c r="I19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1532,22 +1677,28 @@
         <v>106</v>
       </c>
       <c r="D20" s="2">
+        <v>40260.625</v>
+      </c>
+      <c r="E20" s="2">
         <v>40260</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="G20" t="s">
         <v>29</v>
       </c>
-      <c r="F20">
+      <c r="H20">
         <v>19</v>
       </c>
-      <c r="G20" t="s">
-        <v>24</v>
-      </c>
       <c r="I20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -1558,22 +1709,28 @@
         <v>108</v>
       </c>
       <c r="D21" s="2">
+        <v>39653.48333333333</v>
+      </c>
+      <c r="E21" s="2">
         <v>39653</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" s="5">
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="G21" t="s">
         <v>30</v>
       </c>
-      <c r="F21">
+      <c r="H21">
         <v>20</v>
       </c>
-      <c r="G21" t="s">
-        <v>24</v>
-      </c>
       <c r="I21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -1584,22 +1741,28 @@
         <v>108</v>
       </c>
       <c r="D22" s="2">
+        <v>39672.677083333336</v>
+      </c>
+      <c r="E22" s="2">
         <v>39672</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" s="5">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="G22" t="s">
         <v>31</v>
       </c>
-      <c r="F22">
+      <c r="H22">
         <v>21</v>
       </c>
-      <c r="G22" t="s">
-        <v>24</v>
-      </c>
       <c r="I22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -1610,22 +1773,28 @@
         <v>109</v>
       </c>
       <c r="D23" s="2">
+        <v>39700.855555555558</v>
+      </c>
+      <c r="E23" s="2">
         <v>39700</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" s="5">
+        <v>0.85555555555555551</v>
+      </c>
+      <c r="G23" t="s">
         <v>32</v>
       </c>
-      <c r="F23">
+      <c r="H23">
         <v>22</v>
       </c>
-      <c r="G23" t="s">
-        <v>24</v>
-      </c>
       <c r="I23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -1636,22 +1805,28 @@
         <v>109</v>
       </c>
       <c r="D24" s="2">
+        <v>39709.021527777775</v>
+      </c>
+      <c r="E24" s="2">
         <v>39709</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" s="5">
+        <v>2.1527777777777778E-2</v>
+      </c>
+      <c r="G24" t="s">
         <v>33</v>
       </c>
-      <c r="F24">
+      <c r="H24">
         <v>23</v>
       </c>
-      <c r="G24" t="s">
-        <v>24</v>
-      </c>
       <c r="I24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -1662,22 +1837,28 @@
         <v>103</v>
       </c>
       <c r="D25" s="2">
+        <v>40053.32916666667</v>
+      </c>
+      <c r="E25" s="2">
         <v>40053</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" s="5">
+        <v>0.32916666666666666</v>
+      </c>
+      <c r="G25" t="s">
         <v>34</v>
       </c>
-      <c r="F25">
-        <v>24</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="H25">
         <v>24</v>
       </c>
       <c r="I25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -1688,22 +1869,28 @@
         <v>104</v>
       </c>
       <c r="D26" s="2">
+        <v>40060.761805555558</v>
+      </c>
+      <c r="E26" s="2">
         <v>40060</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" s="5">
+        <v>0.76180555555555551</v>
+      </c>
+      <c r="G26" t="s">
         <v>35</v>
       </c>
-      <c r="F26">
-        <v>25</v>
-      </c>
-      <c r="G26" t="s">
-        <v>24</v>
+      <c r="H26">
+        <v>25</v>
       </c>
       <c r="I26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -1714,22 +1901,28 @@
         <v>105</v>
       </c>
       <c r="D27" s="2">
+        <v>40066.904861111114</v>
+      </c>
+      <c r="E27" s="2">
         <v>40066</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" s="5">
+        <v>0.90486111111111112</v>
+      </c>
+      <c r="G27" t="s">
         <v>36</v>
       </c>
-      <c r="F27">
+      <c r="H27">
         <v>26</v>
       </c>
-      <c r="G27" t="s">
-        <v>24</v>
-      </c>
       <c r="I27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -1740,22 +1933,28 @@
         <v>106</v>
       </c>
       <c r="D28" s="2">
+        <v>40094.199305555558</v>
+      </c>
+      <c r="E28" s="2">
         <v>40094</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" s="5">
+        <v>0.19930555555555557</v>
+      </c>
+      <c r="G28" t="s">
         <v>37</v>
       </c>
-      <c r="F28">
+      <c r="H28">
         <v>27</v>
       </c>
-      <c r="G28" t="s">
-        <v>24</v>
-      </c>
       <c r="I28" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -1766,22 +1965,28 @@
         <v>104</v>
       </c>
       <c r="D29" s="2">
+        <v>40045.492361111108</v>
+      </c>
+      <c r="E29" s="2">
         <v>40045</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" s="5">
+        <v>0.49236111111111114</v>
+      </c>
+      <c r="G29" t="s">
         <v>38</v>
       </c>
-      <c r="F29">
+      <c r="H29">
         <v>28</v>
       </c>
-      <c r="G29" t="s">
-        <v>24</v>
-      </c>
       <c r="I29" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -1792,22 +1997,28 @@
         <v>105</v>
       </c>
       <c r="D30" s="2">
+        <v>40052.51666666667</v>
+      </c>
+      <c r="E30" s="2">
         <v>40052</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" s="5">
+        <v>0.51666666666666672</v>
+      </c>
+      <c r="G30" t="s">
         <v>39</v>
       </c>
-      <c r="F30">
+      <c r="H30">
         <v>29</v>
       </c>
-      <c r="G30" t="s">
-        <v>24</v>
-      </c>
       <c r="I30" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -1818,22 +2029,28 @@
         <v>106</v>
       </c>
       <c r="D31" s="2">
+        <v>40081.160416666666</v>
+      </c>
+      <c r="E31" s="2">
         <v>40081</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" s="5">
+        <v>0.16041666666666668</v>
+      </c>
+      <c r="G31" t="s">
         <v>40</v>
       </c>
-      <c r="F31">
+      <c r="H31">
         <v>30</v>
       </c>
-      <c r="G31" t="s">
-        <v>24</v>
-      </c>
       <c r="I31" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -1844,22 +2061,28 @@
         <v>107</v>
       </c>
       <c r="D32" s="2">
+        <v>39968.647916666669</v>
+      </c>
+      <c r="E32" s="2">
         <v>39968</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" s="5">
+        <v>0.6479166666666667</v>
+      </c>
+      <c r="G32" t="s">
         <v>41</v>
       </c>
-      <c r="F32">
+      <c r="H32">
         <v>31</v>
       </c>
-      <c r="G32" t="s">
-        <v>24</v>
-      </c>
       <c r="I32" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -1870,22 +2093,28 @@
         <v>108</v>
       </c>
       <c r="D33" s="2">
+        <v>39996.438194444447</v>
+      </c>
+      <c r="E33" s="2">
         <v>39996</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" s="5">
+        <v>0.43819444444444444</v>
+      </c>
+      <c r="G33" t="s">
         <v>42</v>
       </c>
-      <c r="F33">
+      <c r="H33">
         <v>32</v>
       </c>
-      <c r="G33" t="s">
-        <v>24</v>
-      </c>
       <c r="I33" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K33" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -1896,22 +2125,28 @@
         <v>104</v>
       </c>
       <c r="D34" s="3">
+        <v>40226.32708333333</v>
+      </c>
+      <c r="E34" s="3">
         <v>40226</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" s="5">
+        <v>0.32708333333333334</v>
+      </c>
+      <c r="G34" t="s">
         <v>43</v>
       </c>
-      <c r="F34">
+      <c r="H34">
         <v>33</v>
       </c>
-      <c r="G34" t="s">
-        <v>24</v>
-      </c>
       <c r="I34" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K34" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -1922,22 +2157,28 @@
         <v>105</v>
       </c>
       <c r="D35" s="3">
+        <v>40233.95416666667</v>
+      </c>
+      <c r="E35" s="3">
         <v>40233</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" s="5">
+        <v>0.95416666666666672</v>
+      </c>
+      <c r="G35" t="s">
         <v>44</v>
       </c>
-      <c r="F35">
+      <c r="H35">
         <v>34</v>
       </c>
-      <c r="G35" t="s">
-        <v>24</v>
-      </c>
       <c r="I35" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -1948,22 +2189,28 @@
         <v>106</v>
       </c>
       <c r="D36" s="3">
+        <v>40261.304166666669</v>
+      </c>
+      <c r="E36" s="3">
         <v>40261</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" s="5">
+        <v>0.30416666666666664</v>
+      </c>
+      <c r="G36" t="s">
         <v>45</v>
       </c>
-      <c r="F36">
+      <c r="H36">
         <v>35</v>
       </c>
-      <c r="G36" t="s">
-        <v>24</v>
-      </c>
       <c r="I36" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -1974,22 +2221,28 @@
         <v>108</v>
       </c>
       <c r="D37" s="3">
+        <v>39654.700694444444</v>
+      </c>
+      <c r="E37" s="3">
         <v>39654</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" s="5">
+        <v>0.7006944444444444</v>
+      </c>
+      <c r="G37" t="s">
         <v>46</v>
       </c>
-      <c r="F37">
+      <c r="H37">
         <v>36</v>
       </c>
-      <c r="G37" t="s">
-        <v>24</v>
-      </c>
       <c r="I37" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K37" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -2000,22 +2253,28 @@
         <v>108</v>
       </c>
       <c r="D38" s="3">
+        <v>39673.881249999999</v>
+      </c>
+      <c r="E38" s="3">
         <v>39673</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" s="5">
+        <v>0.88124999999999998</v>
+      </c>
+      <c r="G38" t="s">
         <v>47</v>
       </c>
-      <c r="F38">
+      <c r="H38">
         <v>37</v>
       </c>
-      <c r="G38" t="s">
-        <v>24</v>
-      </c>
       <c r="I38" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K38" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -2026,22 +2285,28 @@
         <v>109</v>
       </c>
       <c r="D39" s="3">
+        <v>39701.559027777781</v>
+      </c>
+      <c r="E39" s="3">
         <v>39701</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" s="5">
+        <v>0.55902777777777779</v>
+      </c>
+      <c r="G39" t="s">
         <v>48</v>
       </c>
-      <c r="F39">
+      <c r="H39">
         <v>38</v>
       </c>
-      <c r="G39" t="s">
-        <v>24</v>
-      </c>
       <c r="I39" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K39" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -2052,22 +2317,28 @@
         <v>109</v>
       </c>
       <c r="D40" s="3">
+        <v>39710.397916666669</v>
+      </c>
+      <c r="E40" s="3">
         <v>39710</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" s="5">
+        <v>0.39791666666666664</v>
+      </c>
+      <c r="G40" t="s">
         <v>49</v>
       </c>
-      <c r="F40">
+      <c r="H40">
         <v>39</v>
       </c>
-      <c r="G40" t="s">
-        <v>24</v>
-      </c>
       <c r="I40" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -2078,22 +2349,28 @@
         <v>103</v>
       </c>
       <c r="D41" s="3">
+        <v>40054.424305555556</v>
+      </c>
+      <c r="E41" s="3">
         <v>40054</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" s="5">
+        <v>0.42430555555555555</v>
+      </c>
+      <c r="G41" t="s">
         <v>50</v>
       </c>
-      <c r="F41">
+      <c r="H41">
         <v>40</v>
       </c>
-      <c r="G41" t="s">
-        <v>24</v>
-      </c>
       <c r="I41" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K41" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -2104,22 +2381,28 @@
         <v>104</v>
       </c>
       <c r="D42" s="3">
+        <v>40061.419444444444</v>
+      </c>
+      <c r="E42" s="3">
         <v>40061</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" s="5">
+        <v>0.41944444444444445</v>
+      </c>
+      <c r="G42" t="s">
         <v>51</v>
       </c>
-      <c r="F42">
+      <c r="H42">
         <v>41</v>
       </c>
-      <c r="G42" t="s">
-        <v>24</v>
-      </c>
       <c r="I42" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K42" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -2130,22 +2413,28 @@
         <v>105</v>
       </c>
       <c r="D43" s="3">
+        <v>40067.604861111111</v>
+      </c>
+      <c r="E43" s="3">
         <v>40067</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" s="5">
+        <v>0.60486111111111107</v>
+      </c>
+      <c r="G43" t="s">
         <v>52</v>
       </c>
-      <c r="F43">
+      <c r="H43">
         <v>42</v>
       </c>
-      <c r="G43" t="s">
-        <v>24</v>
-      </c>
       <c r="I43" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K43" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -2156,22 +2445,28 @@
         <v>106</v>
       </c>
       <c r="D44" s="3">
+        <v>40095.377083333333</v>
+      </c>
+      <c r="E44" s="3">
         <v>40095</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" s="5">
+        <v>0.37708333333333333</v>
+      </c>
+      <c r="G44" t="s">
         <v>53</v>
       </c>
-      <c r="F44">
+      <c r="H44">
         <v>43</v>
       </c>
-      <c r="G44" t="s">
-        <v>24</v>
-      </c>
       <c r="I44" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -2182,22 +2477,28 @@
         <v>104</v>
       </c>
       <c r="D45" s="3">
+        <v>40046.475694444445</v>
+      </c>
+      <c r="E45" s="3">
         <v>40046</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" s="5">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="G45" t="s">
         <v>54</v>
       </c>
-      <c r="F45">
+      <c r="H45">
         <v>44</v>
       </c>
-      <c r="G45" t="s">
-        <v>24</v>
-      </c>
       <c r="I45" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K45" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -2208,22 +2509,28 @@
         <v>105</v>
       </c>
       <c r="D46" s="3">
+        <v>40053.566666666666</v>
+      </c>
+      <c r="E46" s="3">
         <v>40053</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" s="5">
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="G46" t="s">
         <v>55</v>
       </c>
-      <c r="F46">
+      <c r="H46">
         <v>45</v>
       </c>
-      <c r="G46" t="s">
-        <v>24</v>
-      </c>
       <c r="I46" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K46" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -2234,22 +2541,28 @@
         <v>106</v>
       </c>
       <c r="D47" s="3">
+        <v>40082.972916666666</v>
+      </c>
+      <c r="E47" s="3">
         <v>40082</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" s="5">
+        <v>0.97291666666666665</v>
+      </c>
+      <c r="G47" t="s">
         <v>56</v>
       </c>
-      <c r="F47">
+      <c r="H47">
         <v>46</v>
       </c>
-      <c r="G47" t="s">
-        <v>24</v>
-      </c>
       <c r="I47" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K47" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -2260,22 +2573,28 @@
         <v>107</v>
       </c>
       <c r="D48" s="3">
+        <v>39969.679166666669</v>
+      </c>
+      <c r="E48" s="3">
         <v>39969</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" s="5">
+        <v>0.6791666666666667</v>
+      </c>
+      <c r="G48" t="s">
         <v>57</v>
       </c>
-      <c r="F48">
+      <c r="H48">
         <v>47</v>
       </c>
-      <c r="G48" t="s">
-        <v>24</v>
-      </c>
       <c r="I48" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K48" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -2286,22 +2605,28 @@
         <v>108</v>
       </c>
       <c r="D49" s="3">
+        <v>39997.089583333334</v>
+      </c>
+      <c r="E49" s="3">
         <v>39997</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" s="5">
+        <v>8.9583333333333334E-2</v>
+      </c>
+      <c r="G49" t="s">
         <v>58</v>
       </c>
-      <c r="F49">
+      <c r="H49">
         <v>48</v>
       </c>
-      <c r="G49" t="s">
-        <v>24</v>
-      </c>
       <c r="I49" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K49" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -2312,22 +2637,28 @@
         <v>104</v>
       </c>
       <c r="D50" s="3">
+        <v>40227.772916666669</v>
+      </c>
+      <c r="E50" s="3">
         <v>40227</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" s="5">
+        <v>0.7729166666666667</v>
+      </c>
+      <c r="G50" t="s">
         <v>59</v>
       </c>
-      <c r="F50">
+      <c r="H50">
         <v>49</v>
       </c>
-      <c r="G50" t="s">
-        <v>24</v>
-      </c>
       <c r="I50" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K50" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -2338,22 +2669,28 @@
         <v>105</v>
       </c>
       <c r="D51" s="3">
+        <v>40234.175000000003</v>
+      </c>
+      <c r="E51" s="3">
         <v>40234</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" s="5">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="G51" t="s">
         <v>60</v>
       </c>
-      <c r="F51">
+      <c r="H51">
         <v>50</v>
       </c>
-      <c r="G51" t="s">
-        <v>24</v>
-      </c>
       <c r="I51" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K51" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -2364,22 +2701,28 @@
         <v>106</v>
       </c>
       <c r="D52" s="3">
+        <v>40262.835416666669</v>
+      </c>
+      <c r="E52" s="3">
         <v>40262</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" s="5">
+        <v>0.8354166666666667</v>
+      </c>
+      <c r="G52" t="s">
         <v>61</v>
       </c>
-      <c r="F52">
+      <c r="H52">
         <v>51</v>
       </c>
-      <c r="G52" t="s">
-        <v>24</v>
-      </c>
       <c r="I52" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K52" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -2390,22 +2733,28 @@
         <v>108</v>
       </c>
       <c r="D53" s="3">
+        <v>39655.246527777781</v>
+      </c>
+      <c r="E53" s="3">
         <v>39655</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" s="5">
+        <v>0.24652777777777779</v>
+      </c>
+      <c r="G53" t="s">
         <v>62</v>
       </c>
-      <c r="F53">
+      <c r="H53">
         <v>52</v>
       </c>
-      <c r="G53" t="s">
-        <v>24</v>
-      </c>
       <c r="I53" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K53" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>7</v>
       </c>
@@ -2416,22 +2765,28 @@
         <v>108</v>
       </c>
       <c r="D54" s="3">
+        <v>39674.202777777777</v>
+      </c>
+      <c r="E54" s="3">
         <v>39674</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" s="5">
+        <v>0.20277777777777778</v>
+      </c>
+      <c r="G54" t="s">
         <v>63</v>
       </c>
-      <c r="F54">
+      <c r="H54">
         <v>53</v>
       </c>
-      <c r="G54" t="s">
-        <v>24</v>
-      </c>
       <c r="I54" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K54" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -2442,22 +2797,28 @@
         <v>109</v>
       </c>
       <c r="D55" s="3">
+        <v>39702.967361111114</v>
+      </c>
+      <c r="E55" s="3">
         <v>39702</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" s="5">
+        <v>0.96736111111111112</v>
+      </c>
+      <c r="G55" t="s">
         <v>64</v>
       </c>
-      <c r="F55">
+      <c r="H55">
         <v>54</v>
       </c>
-      <c r="G55" t="s">
-        <v>24</v>
-      </c>
       <c r="I55" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K55" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>7</v>
       </c>
@@ -2468,22 +2829,28 @@
         <v>109</v>
       </c>
       <c r="D56" s="3">
+        <v>39711.911805555559</v>
+      </c>
+      <c r="E56" s="3">
         <v>39711</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" s="5">
+        <v>0.91180555555555554</v>
+      </c>
+      <c r="G56" t="s">
         <v>65</v>
       </c>
-      <c r="F56">
+      <c r="H56">
         <v>55</v>
       </c>
-      <c r="G56" t="s">
-        <v>24</v>
-      </c>
       <c r="I56" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K56" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -2494,22 +2861,28 @@
         <v>103</v>
       </c>
       <c r="D57" s="3">
+        <v>40055.77847222222</v>
+      </c>
+      <c r="E57" s="3">
         <v>40055</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" s="5">
+        <v>0.77847222222222223</v>
+      </c>
+      <c r="G57" t="s">
         <v>66</v>
       </c>
-      <c r="F57">
+      <c r="H57">
         <v>56</v>
       </c>
-      <c r="G57" t="s">
-        <v>24</v>
-      </c>
       <c r="I57" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K57" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -2520,22 +2893,28 @@
         <v>104</v>
       </c>
       <c r="D58" s="3">
+        <v>40062.402083333334</v>
+      </c>
+      <c r="E58" s="3">
         <v>40062</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" s="5">
+        <v>0.40208333333333335</v>
+      </c>
+      <c r="G58" t="s">
         <v>67</v>
       </c>
-      <c r="F58">
+      <c r="H58">
         <v>57</v>
       </c>
-      <c r="G58" t="s">
-        <v>24</v>
-      </c>
       <c r="I58" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K58" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>7</v>
       </c>
@@ -2546,22 +2925,28 @@
         <v>105</v>
       </c>
       <c r="D59" s="3">
+        <v>40068.225694444445</v>
+      </c>
+      <c r="E59" s="3">
         <v>40068</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" s="5">
+        <v>0.22569444444444445</v>
+      </c>
+      <c r="G59" t="s">
         <v>68</v>
       </c>
-      <c r="F59">
+      <c r="H59">
         <v>58</v>
       </c>
-      <c r="G59" t="s">
-        <v>24</v>
-      </c>
       <c r="I59" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K59" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>7</v>
       </c>
@@ -2572,22 +2957,28 @@
         <v>106</v>
       </c>
       <c r="D60" s="3">
+        <v>40096.57708333333</v>
+      </c>
+      <c r="E60" s="3">
         <v>40096</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" s="5">
+        <v>0.57708333333333328</v>
+      </c>
+      <c r="G60" t="s">
         <v>69</v>
       </c>
-      <c r="F60">
+      <c r="H60">
         <v>59</v>
       </c>
-      <c r="G60" t="s">
-        <v>24</v>
-      </c>
       <c r="I60" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K60" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -2598,22 +2989,28 @@
         <v>104</v>
       </c>
       <c r="D61" s="3">
+        <v>40047.023611111108</v>
+      </c>
+      <c r="E61" s="3">
         <v>40047</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" s="5">
+        <v>2.361111111111111E-2</v>
+      </c>
+      <c r="G61" t="s">
         <v>70</v>
       </c>
-      <c r="F61">
+      <c r="H61">
         <v>60</v>
       </c>
-      <c r="G61" t="s">
-        <v>24</v>
-      </c>
       <c r="I61" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K61" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -2624,22 +3021,28 @@
         <v>105</v>
       </c>
       <c r="D62" s="3">
+        <v>40054.338888888888</v>
+      </c>
+      <c r="E62" s="3">
         <v>40054</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" s="5">
+        <v>0.33888888888888891</v>
+      </c>
+      <c r="G62" t="s">
         <v>71</v>
       </c>
-      <c r="F62">
+      <c r="H62">
         <v>61</v>
       </c>
-      <c r="G62" t="s">
-        <v>24</v>
-      </c>
       <c r="I62" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K62" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>7</v>
       </c>
@@ -2650,22 +3053,28 @@
         <v>106</v>
       </c>
       <c r="D63" s="3">
+        <v>40083.256944444445</v>
+      </c>
+      <c r="E63" s="3">
         <v>40083</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" s="5">
+        <v>0.25694444444444442</v>
+      </c>
+      <c r="G63" t="s">
         <v>72</v>
       </c>
-      <c r="F63">
+      <c r="H63">
         <v>62</v>
       </c>
-      <c r="G63" t="s">
-        <v>24</v>
-      </c>
       <c r="I63" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K63" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>7</v>
       </c>
@@ -2676,22 +3085,28 @@
         <v>107</v>
       </c>
       <c r="D64" s="3">
+        <v>39970.540277777778</v>
+      </c>
+      <c r="E64" s="3">
         <v>39970</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" s="5">
+        <v>0.54027777777777775</v>
+      </c>
+      <c r="G64" t="s">
         <v>73</v>
       </c>
-      <c r="F64">
+      <c r="H64">
         <v>63</v>
       </c>
-      <c r="G64" t="s">
-        <v>24</v>
-      </c>
       <c r="I64" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K64" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -2702,22 +3117,28 @@
         <v>108</v>
       </c>
       <c r="D65" s="3">
+        <v>39998.165277777778</v>
+      </c>
+      <c r="E65" s="3">
         <v>39998</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" s="5">
+        <v>0.16527777777777777</v>
+      </c>
+      <c r="G65" t="s">
         <v>74</v>
       </c>
-      <c r="F65">
+      <c r="H65">
         <v>64</v>
       </c>
-      <c r="G65" t="s">
-        <v>24</v>
-      </c>
       <c r="I65" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K65" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -2728,22 +3149,28 @@
         <v>104</v>
       </c>
       <c r="D66" s="3">
+        <v>40228.570138888892</v>
+      </c>
+      <c r="E66" s="3">
         <v>40228</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66" s="5">
+        <v>0.57013888888888886</v>
+      </c>
+      <c r="G66" t="s">
         <v>75</v>
       </c>
-      <c r="F66">
+      <c r="H66">
         <v>65</v>
       </c>
-      <c r="G66" t="s">
-        <v>24</v>
-      </c>
       <c r="I66" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K66" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -2754,22 +3181,28 @@
         <v>105</v>
       </c>
       <c r="D67" s="3">
+        <v>40235.120138888888</v>
+      </c>
+      <c r="E67" s="3">
         <v>40235</v>
       </c>
-      <c r="E67" t="s">
+      <c r="F67" s="5">
+        <v>0.12013888888888889</v>
+      </c>
+      <c r="G67" t="s">
         <v>76</v>
       </c>
-      <c r="F67">
+      <c r="H67">
         <v>66</v>
       </c>
-      <c r="G67" t="s">
-        <v>24</v>
-      </c>
       <c r="I67" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K67" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>7</v>
       </c>
@@ -2780,22 +3213,28 @@
         <v>106</v>
       </c>
       <c r="D68" s="3">
+        <v>40263.196527777778</v>
+      </c>
+      <c r="E68" s="3">
         <v>40263</v>
       </c>
-      <c r="E68" t="s">
+      <c r="F68" s="5">
+        <v>0.19652777777777777</v>
+      </c>
+      <c r="G68" t="s">
         <v>77</v>
       </c>
-      <c r="F68">
+      <c r="H68">
         <v>67</v>
       </c>
-      <c r="G68" t="s">
-        <v>24</v>
-      </c>
       <c r="I68" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K68" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>7</v>
       </c>
@@ -2806,22 +3245,28 @@
         <v>108</v>
       </c>
       <c r="D69" s="3">
+        <v>39656.913888888892</v>
+      </c>
+      <c r="E69" s="3">
         <v>39656</v>
       </c>
-      <c r="E69" t="s">
+      <c r="F69" s="5">
+        <v>0.91388888888888886</v>
+      </c>
+      <c r="G69" t="s">
         <v>78</v>
       </c>
-      <c r="F69">
+      <c r="H69">
         <v>68</v>
       </c>
-      <c r="G69" t="s">
-        <v>24</v>
-      </c>
       <c r="I69" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K69" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -2832,22 +3277,28 @@
         <v>108</v>
       </c>
       <c r="D70" s="3">
+        <v>39675.833333333336</v>
+      </c>
+      <c r="E70" s="3">
         <v>39675</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" s="5">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G70" t="s">
         <v>79</v>
       </c>
-      <c r="F70">
+      <c r="H70">
         <v>69</v>
       </c>
-      <c r="G70" t="s">
-        <v>24</v>
-      </c>
       <c r="I70" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K70" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>7</v>
       </c>
@@ -2858,22 +3309,28 @@
         <v>109</v>
       </c>
       <c r="D71" s="3">
+        <v>39703.76458333333</v>
+      </c>
+      <c r="E71" s="3">
         <v>39703</v>
       </c>
-      <c r="E71" t="s">
+      <c r="F71" s="5">
+        <v>0.76458333333333328</v>
+      </c>
+      <c r="G71" t="s">
         <v>80</v>
       </c>
-      <c r="F71">
+      <c r="H71">
         <v>70</v>
       </c>
-      <c r="G71" t="s">
-        <v>24</v>
-      </c>
       <c r="I71" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K71" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>7</v>
       </c>
@@ -2884,22 +3341,28 @@
         <v>109</v>
       </c>
       <c r="D72" s="3">
+        <v>39712.473611111112</v>
+      </c>
+      <c r="E72" s="3">
         <v>39712</v>
       </c>
-      <c r="E72" t="s">
+      <c r="F72" s="5">
+        <v>0.47361111111111109</v>
+      </c>
+      <c r="G72" t="s">
         <v>81</v>
       </c>
-      <c r="F72">
+      <c r="H72">
         <v>71</v>
       </c>
-      <c r="G72" t="s">
-        <v>24</v>
-      </c>
       <c r="I72" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K72" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>7</v>
       </c>
@@ -2910,22 +3373,28 @@
         <v>103</v>
       </c>
       <c r="D73" s="3">
+        <v>40056.712500000001</v>
+      </c>
+      <c r="E73" s="3">
         <v>40056</v>
       </c>
-      <c r="E73" t="s">
+      <c r="F73" s="5">
+        <v>0.71250000000000002</v>
+      </c>
+      <c r="G73" t="s">
         <v>82</v>
       </c>
-      <c r="F73">
+      <c r="H73">
         <v>72</v>
       </c>
-      <c r="G73" t="s">
-        <v>24</v>
-      </c>
       <c r="I73" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K73" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>7</v>
       </c>
@@ -2936,22 +3405,28 @@
         <v>104</v>
       </c>
       <c r="D74" s="3">
+        <v>40063.213888888888</v>
+      </c>
+      <c r="E74" s="3">
         <v>40063</v>
       </c>
-      <c r="E74" t="s">
+      <c r="F74" s="5">
+        <v>0.21388888888888888</v>
+      </c>
+      <c r="G74" t="s">
         <v>83</v>
       </c>
-      <c r="F74">
+      <c r="H74">
         <v>73</v>
       </c>
-      <c r="G74" t="s">
-        <v>24</v>
-      </c>
       <c r="I74" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K74" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -2962,22 +3437,28 @@
         <v>105</v>
       </c>
       <c r="D75" s="3">
+        <v>40069.977083333331</v>
+      </c>
+      <c r="E75" s="3">
         <v>40069</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F75" s="5">
+        <v>0.9770833333333333</v>
+      </c>
+      <c r="G75" t="s">
         <v>84</v>
       </c>
-      <c r="F75">
+      <c r="H75">
         <v>74</v>
       </c>
-      <c r="G75" t="s">
-        <v>24</v>
-      </c>
       <c r="I75" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K75" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -2988,22 +3469,28 @@
         <v>106</v>
       </c>
       <c r="D76" s="3">
+        <v>40097.825694444444</v>
+      </c>
+      <c r="E76" s="3">
         <v>40097</v>
       </c>
-      <c r="E76" t="s">
+      <c r="F76" s="5">
+        <v>0.8256944444444444</v>
+      </c>
+      <c r="G76" t="s">
         <v>85</v>
       </c>
-      <c r="F76">
+      <c r="H76">
         <v>75</v>
       </c>
-      <c r="G76" t="s">
-        <v>24</v>
-      </c>
       <c r="I76" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K76" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>7</v>
       </c>
@@ -3014,22 +3501,28 @@
         <v>104</v>
       </c>
       <c r="D77" s="3">
+        <v>40048.364583333336</v>
+      </c>
+      <c r="E77" s="3">
         <v>40048</v>
       </c>
-      <c r="E77" t="s">
+      <c r="F77" s="5">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="G77" t="s">
         <v>86</v>
       </c>
-      <c r="F77">
+      <c r="H77">
         <v>76</v>
       </c>
-      <c r="G77" t="s">
-        <v>24</v>
-      </c>
       <c r="I77" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K77" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>7</v>
       </c>
@@ -3040,22 +3533,28 @@
         <v>105</v>
       </c>
       <c r="D78" s="3">
+        <v>40055.883333333331</v>
+      </c>
+      <c r="E78" s="3">
         <v>40055</v>
       </c>
-      <c r="E78" t="s">
+      <c r="F78" s="5">
+        <v>0.8833333333333333</v>
+      </c>
+      <c r="G78" t="s">
         <v>87</v>
       </c>
-      <c r="F78">
+      <c r="H78">
         <v>77</v>
       </c>
-      <c r="G78" t="s">
-        <v>24</v>
-      </c>
       <c r="I78" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K78" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>7</v>
       </c>
@@ -3066,22 +3565,28 @@
         <v>106</v>
       </c>
       <c r="D79" s="3">
+        <v>40084.131944444445</v>
+      </c>
+      <c r="E79" s="3">
         <v>40084</v>
       </c>
-      <c r="E79" t="s">
+      <c r="F79" s="5">
+        <v>0.13194444444444445</v>
+      </c>
+      <c r="G79" t="s">
         <v>88</v>
       </c>
-      <c r="F79">
+      <c r="H79">
         <v>78</v>
       </c>
-      <c r="G79" t="s">
-        <v>24</v>
-      </c>
       <c r="I79" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K79" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>7</v>
       </c>
@@ -3092,22 +3597,28 @@
         <v>107</v>
       </c>
       <c r="D80" s="3">
+        <v>39971.586111111108</v>
+      </c>
+      <c r="E80" s="3">
         <v>39971</v>
       </c>
-      <c r="E80" t="s">
+      <c r="F80" s="5">
+        <v>0.58611111111111114</v>
+      </c>
+      <c r="G80" t="s">
         <v>89</v>
       </c>
-      <c r="F80">
+      <c r="H80">
         <v>79</v>
       </c>
-      <c r="G80" t="s">
-        <v>24</v>
-      </c>
       <c r="I80" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K80" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
         <v>7</v>
       </c>
@@ -3118,22 +3629,28 @@
         <v>108</v>
       </c>
       <c r="D81" s="3">
+        <v>39999.361111111109</v>
+      </c>
+      <c r="E81" s="3">
         <v>39999</v>
       </c>
-      <c r="E81" t="s">
+      <c r="F81" s="5">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="G81" t="s">
         <v>90</v>
       </c>
-      <c r="F81">
+      <c r="H81">
         <v>80</v>
       </c>
-      <c r="G81" t="s">
-        <v>24</v>
-      </c>
       <c r="I81" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K81" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
         <v>7</v>
       </c>
@@ -3144,22 +3661,28 @@
         <v>104</v>
       </c>
       <c r="D82" s="3">
+        <v>40229.942361111112</v>
+      </c>
+      <c r="E82" s="3">
         <v>40229</v>
       </c>
-      <c r="E82" t="s">
+      <c r="F82" s="5">
+        <v>0.94236111111111109</v>
+      </c>
+      <c r="G82" t="s">
         <v>91</v>
       </c>
-      <c r="F82">
+      <c r="H82">
         <v>81</v>
       </c>
-      <c r="G82" t="s">
-        <v>24</v>
-      </c>
       <c r="I82" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K82" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>7</v>
       </c>
@@ -3170,22 +3693,28 @@
         <v>105</v>
       </c>
       <c r="D83" s="3">
+        <v>40236.484722222223</v>
+      </c>
+      <c r="E83" s="3">
         <v>40236</v>
       </c>
-      <c r="E83" t="s">
+      <c r="F83" s="5">
+        <v>0.48472222222222222</v>
+      </c>
+      <c r="G83" t="s">
         <v>92</v>
       </c>
-      <c r="F83">
+      <c r="H83">
         <v>82</v>
       </c>
-      <c r="G83" t="s">
-        <v>24</v>
-      </c>
       <c r="I83" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K83" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
         <v>7</v>
       </c>
@@ -3196,22 +3725,28 @@
         <v>106</v>
       </c>
       <c r="D84" s="3">
+        <v>40264.395833333336</v>
+      </c>
+      <c r="E84" s="3">
         <v>40264</v>
       </c>
-      <c r="E84" t="s">
+      <c r="F84" s="5">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="G84" t="s">
         <v>93</v>
       </c>
-      <c r="F84">
+      <c r="H84">
         <v>83</v>
       </c>
-      <c r="G84" t="s">
-        <v>24</v>
-      </c>
       <c r="I84" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K84" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
         <v>7</v>
       </c>
@@ -3222,22 +3757,28 @@
         <v>108</v>
       </c>
       <c r="D85" s="3">
+        <v>39657.145833333336</v>
+      </c>
+      <c r="E85" s="3">
         <v>39657</v>
       </c>
-      <c r="E85" t="s">
+      <c r="F85" s="5">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="G85" t="s">
         <v>94</v>
       </c>
-      <c r="F85">
+      <c r="H85">
         <v>84</v>
       </c>
-      <c r="G85" t="s">
-        <v>24</v>
-      </c>
       <c r="I85" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K85" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>7</v>
       </c>
@@ -3248,22 +3789,28 @@
         <v>108</v>
       </c>
       <c r="D86" s="3">
+        <v>39676.729166666664</v>
+      </c>
+      <c r="E86" s="3">
         <v>39676</v>
       </c>
-      <c r="E86" t="s">
+      <c r="F86" s="5">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="G86" t="s">
         <v>95</v>
       </c>
-      <c r="F86">
+      <c r="H86">
         <v>85</v>
       </c>
-      <c r="G86" t="s">
-        <v>24</v>
-      </c>
       <c r="I86" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K86" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
         <v>7</v>
       </c>
@@ -3274,22 +3821,28 @@
         <v>109</v>
       </c>
       <c r="D87" s="3">
+        <v>39704.914583333331</v>
+      </c>
+      <c r="E87" s="3">
         <v>39704</v>
       </c>
-      <c r="E87" t="s">
+      <c r="F87" s="5">
+        <v>0.9145833333333333</v>
+      </c>
+      <c r="G87" t="s">
         <v>96</v>
       </c>
-      <c r="F87">
+      <c r="H87">
         <v>86</v>
       </c>
-      <c r="G87" t="s">
-        <v>24</v>
-      </c>
       <c r="I87" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K87" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>7</v>
       </c>
@@ -3300,22 +3853,28 @@
         <v>109</v>
       </c>
       <c r="D88" s="3">
+        <v>39713.661111111112</v>
+      </c>
+      <c r="E88" s="3">
         <v>39713</v>
       </c>
-      <c r="E88" t="s">
+      <c r="F88" s="5">
+        <v>0.66111111111111109</v>
+      </c>
+      <c r="G88" t="s">
         <v>97</v>
       </c>
-      <c r="F88">
+      <c r="H88">
         <v>87</v>
       </c>
-      <c r="G88" t="s">
-        <v>24</v>
-      </c>
       <c r="I88" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K88" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
         <v>7</v>
       </c>
@@ -3326,22 +3885,28 @@
         <v>103</v>
       </c>
       <c r="D89" s="3">
+        <v>40057.336111111108</v>
+      </c>
+      <c r="E89" s="3">
         <v>40057</v>
       </c>
-      <c r="E89" t="s">
+      <c r="F89" s="5">
+        <v>0.33611111111111114</v>
+      </c>
+      <c r="G89" t="s">
         <v>98</v>
       </c>
-      <c r="F89">
+      <c r="H89">
         <v>88</v>
       </c>
-      <c r="G89" t="s">
-        <v>24</v>
-      </c>
       <c r="I89" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K89" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
         <v>7</v>
       </c>
@@ -3352,22 +3917,28 @@
         <v>104</v>
       </c>
       <c r="D90" s="3">
+        <v>40064.85</v>
+      </c>
+      <c r="E90" s="3">
         <v>40064</v>
       </c>
-      <c r="E90" t="s">
+      <c r="F90" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="G90" t="s">
         <v>99</v>
       </c>
-      <c r="F90">
+      <c r="H90">
         <v>89</v>
       </c>
-      <c r="G90" t="s">
-        <v>24</v>
-      </c>
       <c r="I90" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K90" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
         <v>7</v>
       </c>
@@ -3378,22 +3949,28 @@
         <v>105</v>
       </c>
       <c r="D91" s="3">
+        <v>40070.167361111111</v>
+      </c>
+      <c r="E91" s="3">
         <v>40070</v>
       </c>
-      <c r="E91" t="s">
+      <c r="F91" s="5">
+        <v>0.1673611111111111</v>
+      </c>
+      <c r="G91" t="s">
         <v>100</v>
       </c>
-      <c r="F91">
+      <c r="H91">
         <v>90</v>
       </c>
-      <c r="G91" t="s">
-        <v>24</v>
-      </c>
       <c r="I91" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K91" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
         <v>7</v>
       </c>
@@ -3404,22 +3981,28 @@
         <v>106</v>
       </c>
       <c r="D92" s="3">
+        <v>40098.256944444445</v>
+      </c>
+      <c r="E92" s="3">
         <v>40098</v>
       </c>
-      <c r="E92" t="s">
+      <c r="F92" s="5">
+        <v>0.25694444444444442</v>
+      </c>
+      <c r="G92" t="s">
         <v>101</v>
       </c>
-      <c r="F92">
+      <c r="H92">
         <v>91</v>
       </c>
-      <c r="G92" t="s">
-        <v>24</v>
-      </c>
       <c r="I92" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K92" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
         <v>7</v>
       </c>
@@ -3430,22 +4013,28 @@
         <v>104</v>
       </c>
       <c r="D93" s="3">
+        <v>40049.565972222219</v>
+      </c>
+      <c r="E93" s="3">
         <v>40049</v>
       </c>
-      <c r="E93" t="s">
+      <c r="F93" s="5">
+        <v>0.56597222222222221</v>
+      </c>
+      <c r="G93" t="s">
         <v>102</v>
       </c>
-      <c r="F93">
+      <c r="H93">
         <v>92</v>
       </c>
-      <c r="G93" t="s">
-        <v>24</v>
-      </c>
       <c r="I93" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K93" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
         <v>7</v>
       </c>
@@ -3456,22 +4045,28 @@
         <v>105</v>
       </c>
       <c r="D94" s="3">
+        <v>40056.6</v>
+      </c>
+      <c r="E94" s="3">
         <v>40056</v>
       </c>
-      <c r="E94" t="s">
+      <c r="F94" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="G94" t="s">
         <v>103</v>
       </c>
-      <c r="F94">
+      <c r="H94">
         <v>93</v>
       </c>
-      <c r="G94" t="s">
-        <v>24</v>
-      </c>
       <c r="I94" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K94" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
         <v>7</v>
       </c>
@@ -3482,22 +4077,28 @@
         <v>106</v>
       </c>
       <c r="D95" s="3">
+        <v>40085.078472222223</v>
+      </c>
+      <c r="E95" s="3">
         <v>40085</v>
       </c>
-      <c r="E95" t="s">
+      <c r="F95" s="5">
+        <v>7.8472222222222221E-2</v>
+      </c>
+      <c r="G95" t="s">
         <v>104</v>
       </c>
-      <c r="F95">
+      <c r="H95">
         <v>94</v>
       </c>
-      <c r="G95" t="s">
-        <v>24</v>
-      </c>
       <c r="I95" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K95" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
         <v>7</v>
       </c>
@@ -3508,22 +4109,28 @@
         <v>107</v>
       </c>
       <c r="D96" s="3">
+        <v>39972.120833333334</v>
+      </c>
+      <c r="E96" s="3">
         <v>39972</v>
       </c>
-      <c r="E96" t="s">
+      <c r="F96" s="5">
+        <v>0.12083333333333333</v>
+      </c>
+      <c r="G96" t="s">
         <v>105</v>
       </c>
-      <c r="F96">
+      <c r="H96">
         <v>95</v>
       </c>
-      <c r="G96" t="s">
-        <v>24</v>
-      </c>
       <c r="I96" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K96" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
         <v>7</v>
       </c>
@@ -3534,22 +4141,28 @@
         <v>108</v>
       </c>
       <c r="D97" s="3">
+        <v>40000.802083333336</v>
+      </c>
+      <c r="E97" s="3">
         <v>40000</v>
       </c>
-      <c r="E97" t="s">
+      <c r="F97" s="5">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="G97" t="s">
         <v>106</v>
       </c>
-      <c r="F97">
+      <c r="H97">
         <v>96</v>
       </c>
-      <c r="G97" t="s">
-        <v>24</v>
-      </c>
       <c r="I97" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K97" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
         <v>7</v>
       </c>
@@ -3560,22 +4173,28 @@
         <v>104</v>
       </c>
       <c r="D98" s="3">
+        <v>40230.510416666664</v>
+      </c>
+      <c r="E98" s="3">
         <v>40230</v>
       </c>
-      <c r="E98" t="s">
+      <c r="F98" s="5">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="G98" t="s">
         <v>107</v>
       </c>
-      <c r="F98">
+      <c r="H98">
         <v>97</v>
       </c>
-      <c r="G98" t="s">
-        <v>24</v>
-      </c>
       <c r="I98" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K98" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
         <v>7</v>
       </c>
@@ -3586,22 +4205,28 @@
         <v>105</v>
       </c>
       <c r="D99" s="3">
+        <v>40237.800694444442</v>
+      </c>
+      <c r="E99" s="3">
         <v>40237</v>
       </c>
-      <c r="E99" t="s">
+      <c r="F99" s="5">
+        <v>0.80069444444444449</v>
+      </c>
+      <c r="G99" t="s">
         <v>108</v>
       </c>
-      <c r="F99">
+      <c r="H99">
         <v>98</v>
       </c>
-      <c r="G99" t="s">
-        <v>24</v>
-      </c>
       <c r="I99" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K99" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
         <v>7</v>
       </c>
@@ -3612,22 +4237,28 @@
         <v>106</v>
       </c>
       <c r="D100" s="3">
+        <v>40265.521527777775</v>
+      </c>
+      <c r="E100" s="3">
         <v>40265</v>
       </c>
-      <c r="E100" t="s">
+      <c r="F100" s="5">
+        <v>0.52152777777777781</v>
+      </c>
+      <c r="G100" t="s">
         <v>109</v>
       </c>
-      <c r="F100">
+      <c r="H100">
         <v>99</v>
       </c>
-      <c r="G100" t="s">
-        <v>24</v>
-      </c>
       <c r="I100" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K100" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
         <v>7</v>
       </c>
@@ -3638,22 +4269,28 @@
         <v>108</v>
       </c>
       <c r="D101" s="3">
+        <v>39658.827777777777</v>
+      </c>
+      <c r="E101" s="3">
         <v>39658</v>
       </c>
-      <c r="E101" t="s">
+      <c r="F101" s="5">
+        <v>0.82777777777777772</v>
+      </c>
+      <c r="G101" t="s">
         <v>110</v>
       </c>
-      <c r="F101">
+      <c r="H101">
         <v>100</v>
       </c>
-      <c r="G101" t="s">
-        <v>24</v>
-      </c>
       <c r="I101" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K101" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
         <v>7</v>
       </c>
@@ -3664,22 +4301,28 @@
         <v>108</v>
       </c>
       <c r="D102" s="3">
+        <v>39677.804861111108</v>
+      </c>
+      <c r="E102" s="3">
         <v>39677</v>
       </c>
-      <c r="E102" t="s">
+      <c r="F102" s="5">
+        <v>0.80486111111111114</v>
+      </c>
+      <c r="G102" t="s">
         <v>111</v>
       </c>
-      <c r="F102">
+      <c r="H102">
         <v>101</v>
       </c>
-      <c r="G102" t="s">
-        <v>24</v>
-      </c>
       <c r="I102" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K102" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
         <v>7</v>
       </c>
@@ -3690,22 +4333,28 @@
         <v>109</v>
       </c>
       <c r="D103" s="3">
+        <v>39705.209027777775</v>
+      </c>
+      <c r="E103" s="3">
         <v>39705</v>
       </c>
-      <c r="E103" t="s">
+      <c r="F103" s="5">
+        <v>0.20902777777777778</v>
+      </c>
+      <c r="G103" t="s">
         <v>112</v>
       </c>
-      <c r="F103">
+      <c r="H103">
         <v>102</v>
       </c>
-      <c r="G103" t="s">
-        <v>24</v>
-      </c>
       <c r="I103" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K103" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
         <v>7</v>
       </c>
@@ -3716,22 +4365,28 @@
         <v>109</v>
       </c>
       <c r="D104" s="3">
+        <v>39714.066666666666</v>
+      </c>
+      <c r="E104" s="3">
         <v>39714</v>
       </c>
-      <c r="E104" t="s">
+      <c r="F104" s="5">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="G104" t="s">
         <v>113</v>
       </c>
-      <c r="F104">
+      <c r="H104">
         <v>103</v>
       </c>
-      <c r="G104" t="s">
-        <v>24</v>
-      </c>
       <c r="I104" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K104" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
         <v>7</v>
       </c>
@@ -3742,22 +4397,28 @@
         <v>103</v>
       </c>
       <c r="D105" s="3">
+        <v>40058.449999999997</v>
+      </c>
+      <c r="E105" s="3">
         <v>40058</v>
       </c>
-      <c r="E105" t="s">
+      <c r="F105" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="G105" t="s">
         <v>114</v>
       </c>
-      <c r="F105">
+      <c r="H105">
         <v>104</v>
       </c>
-      <c r="G105" t="s">
-        <v>24</v>
-      </c>
       <c r="I105" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K105" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
         <v>7</v>
       </c>
@@ -3768,22 +4429,28 @@
         <v>104</v>
       </c>
       <c r="D106" s="3">
+        <v>40065.181250000001</v>
+      </c>
+      <c r="E106" s="3">
         <v>40065</v>
       </c>
-      <c r="E106" t="s">
+      <c r="F106" s="5">
+        <v>0.18124999999999999</v>
+      </c>
+      <c r="G106" t="s">
         <v>115</v>
       </c>
-      <c r="F106">
+      <c r="H106">
         <v>105</v>
       </c>
-      <c r="G106" t="s">
-        <v>24</v>
-      </c>
       <c r="I106" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K106" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
         <v>7</v>
       </c>
@@ -3794,22 +4461,28 @@
         <v>105</v>
       </c>
       <c r="D107" s="3">
+        <v>40071.746527777781</v>
+      </c>
+      <c r="E107" s="3">
         <v>40071</v>
       </c>
-      <c r="E107" t="s">
+      <c r="F107" s="5">
+        <v>0.74652777777777779</v>
+      </c>
+      <c r="G107" t="s">
         <v>116</v>
       </c>
-      <c r="F107">
+      <c r="H107">
         <v>106</v>
       </c>
-      <c r="G107" t="s">
-        <v>24</v>
-      </c>
       <c r="I107" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K107" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
         <v>7</v>
       </c>
@@ -3820,22 +4493,28 @@
         <v>106</v>
       </c>
       <c r="D108" s="3">
+        <v>40099.683333333334</v>
+      </c>
+      <c r="E108" s="3">
         <v>40099</v>
       </c>
-      <c r="E108" t="s">
+      <c r="F108" s="5">
+        <v>0.68333333333333335</v>
+      </c>
+      <c r="G108" t="s">
         <v>117</v>
       </c>
-      <c r="F108">
+      <c r="H108">
         <v>107</v>
       </c>
-      <c r="G108" t="s">
-        <v>24</v>
-      </c>
       <c r="I108" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K108" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
         <v>7</v>
       </c>
@@ -3846,22 +4525,28 @@
         <v>104</v>
       </c>
       <c r="D109" s="3">
+        <v>40050.310416666667</v>
+      </c>
+      <c r="E109" s="3">
         <v>40050</v>
       </c>
-      <c r="E109" t="s">
+      <c r="F109" s="5">
+        <v>0.31041666666666667</v>
+      </c>
+      <c r="G109" t="s">
         <v>118</v>
       </c>
-      <c r="F109">
+      <c r="H109">
         <v>108</v>
       </c>
-      <c r="G109" t="s">
-        <v>24</v>
-      </c>
       <c r="I109" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K109" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
         <v>7</v>
       </c>
@@ -3872,22 +4557,28 @@
         <v>105</v>
       </c>
       <c r="D110" s="3">
+        <v>40057.668055555558</v>
+      </c>
+      <c r="E110" s="3">
         <v>40057</v>
       </c>
-      <c r="E110" t="s">
+      <c r="F110" s="5">
+        <v>0.66805555555555551</v>
+      </c>
+      <c r="G110" t="s">
         <v>119</v>
       </c>
-      <c r="F110">
+      <c r="H110">
         <v>109</v>
       </c>
-      <c r="G110" t="s">
-        <v>24</v>
-      </c>
       <c r="I110" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K110" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
         <v>7</v>
       </c>
@@ -3898,22 +4589,28 @@
         <v>106</v>
       </c>
       <c r="D111" s="3">
+        <v>40086.548611111109</v>
+      </c>
+      <c r="E111" s="3">
         <v>40086</v>
       </c>
-      <c r="E111" t="s">
+      <c r="F111" s="5">
+        <v>0.54861111111111116</v>
+      </c>
+      <c r="G111" t="s">
         <v>120</v>
       </c>
-      <c r="F111">
+      <c r="H111">
         <v>110</v>
       </c>
-      <c r="G111" t="s">
-        <v>24</v>
-      </c>
       <c r="I111" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K111" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
         <v>7</v>
       </c>
@@ -3924,22 +4621,28 @@
         <v>107</v>
       </c>
       <c r="D112" s="3">
+        <v>39973.96597222222</v>
+      </c>
+      <c r="E112" s="3">
         <v>39973</v>
       </c>
-      <c r="E112" t="s">
+      <c r="F112" s="5">
+        <v>0.96597222222222223</v>
+      </c>
+      <c r="G112" t="s">
         <v>121</v>
       </c>
-      <c r="F112">
+      <c r="H112">
         <v>111</v>
       </c>
-      <c r="G112" t="s">
-        <v>24</v>
-      </c>
       <c r="I112" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K112" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
         <v>7</v>
       </c>
@@ -3950,22 +4653,28 @@
         <v>108</v>
       </c>
       <c r="D113" s="3">
+        <v>40001.488888888889</v>
+      </c>
+      <c r="E113" s="3">
         <v>40001</v>
       </c>
-      <c r="E113" t="s">
+      <c r="F113" s="5">
+        <v>0.48888888888888887</v>
+      </c>
+      <c r="G113" t="s">
         <v>122</v>
       </c>
-      <c r="F113">
+      <c r="H113">
         <v>112</v>
       </c>
-      <c r="G113" t="s">
-        <v>24</v>
-      </c>
       <c r="I113" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K113" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
         <v>7</v>
       </c>
@@ -3976,22 +4685,28 @@
         <v>104</v>
       </c>
       <c r="D114" s="3">
+        <v>40231.73541666667</v>
+      </c>
+      <c r="E114" s="3">
         <v>40231</v>
       </c>
-      <c r="E114" t="s">
+      <c r="F114" s="5">
+        <v>0.73541666666666672</v>
+      </c>
+      <c r="G114" t="s">
         <v>123</v>
       </c>
-      <c r="F114">
+      <c r="H114">
         <v>113</v>
       </c>
-      <c r="G114" t="s">
-        <v>24</v>
-      </c>
       <c r="I114" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K114" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
         <v>7</v>
       </c>
@@ -4002,22 +4717,28 @@
         <v>105</v>
       </c>
       <c r="D115" s="3">
+        <v>40238.652777777781</v>
+      </c>
+      <c r="E115" s="3">
         <v>40238</v>
       </c>
-      <c r="E115" t="s">
+      <c r="F115" s="5">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="G115" t="s">
         <v>124</v>
       </c>
-      <c r="F115">
+      <c r="H115">
         <v>114</v>
       </c>
-      <c r="G115" t="s">
-        <v>24</v>
-      </c>
       <c r="I115" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K115" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
         <v>7</v>
       </c>
@@ -4028,22 +4749,28 @@
         <v>106</v>
       </c>
       <c r="D116" s="3">
+        <v>40266.961111111108</v>
+      </c>
+      <c r="E116" s="3">
         <v>40266</v>
       </c>
-      <c r="E116" t="s">
+      <c r="F116" s="5">
+        <v>0.96111111111111114</v>
+      </c>
+      <c r="G116" t="s">
         <v>125</v>
       </c>
-      <c r="F116">
+      <c r="H116">
         <v>115</v>
       </c>
-      <c r="G116" t="s">
-        <v>24</v>
-      </c>
       <c r="I116" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K116" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
         <v>7</v>
       </c>
@@ -4054,22 +4781,28 @@
         <v>108</v>
       </c>
       <c r="D117" s="3">
+        <v>39659.714583333334</v>
+      </c>
+      <c r="E117" s="3">
         <v>39659</v>
       </c>
-      <c r="E117" t="s">
+      <c r="F117" s="5">
+        <v>0.71458333333333335</v>
+      </c>
+      <c r="G117" t="s">
         <v>126</v>
       </c>
-      <c r="F117">
+      <c r="H117">
         <v>116</v>
       </c>
-      <c r="G117" t="s">
-        <v>24</v>
-      </c>
       <c r="I117" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K117" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
         <v>7</v>
       </c>
@@ -4080,22 +4813,28 @@
         <v>108</v>
       </c>
       <c r="D118" s="3">
+        <v>39678.272222222222</v>
+      </c>
+      <c r="E118" s="3">
         <v>39678</v>
       </c>
-      <c r="E118" t="s">
+      <c r="F118" s="5">
+        <v>0.2722222222222222</v>
+      </c>
+      <c r="G118" t="s">
         <v>127</v>
       </c>
-      <c r="F118">
+      <c r="H118">
         <v>117</v>
       </c>
-      <c r="G118" t="s">
-        <v>24</v>
-      </c>
       <c r="I118" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K118" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
         <v>7</v>
       </c>
@@ -4106,22 +4845,28 @@
         <v>109</v>
       </c>
       <c r="D119" s="3">
+        <v>39706.709027777775</v>
+      </c>
+      <c r="E119" s="3">
         <v>39706</v>
       </c>
-      <c r="E119" t="s">
+      <c r="F119" s="5">
+        <v>0.70902777777777781</v>
+      </c>
+      <c r="G119" t="s">
         <v>128</v>
       </c>
-      <c r="F119">
+      <c r="H119">
         <v>118</v>
       </c>
-      <c r="G119" t="s">
-        <v>24</v>
-      </c>
       <c r="I119" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K119" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
         <v>7</v>
       </c>
@@ -4132,22 +4877,28 @@
         <v>109</v>
       </c>
       <c r="D120" s="3">
+        <v>39715.60833333333</v>
+      </c>
+      <c r="E120" s="3">
         <v>39715</v>
       </c>
-      <c r="E120" t="s">
+      <c r="F120" s="5">
+        <v>0.60833333333333328</v>
+      </c>
+      <c r="G120" t="s">
         <v>129</v>
       </c>
-      <c r="F120">
+      <c r="H120">
         <v>119</v>
       </c>
-      <c r="G120" t="s">
-        <v>24</v>
-      </c>
       <c r="I120" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K120" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
         <v>7</v>
       </c>
@@ -4158,22 +4909,28 @@
         <v>103</v>
       </c>
       <c r="D121" s="3">
+        <v>40059.616666666669</v>
+      </c>
+      <c r="E121" s="3">
         <v>40059</v>
       </c>
-      <c r="E121" t="s">
+      <c r="F121" s="5">
+        <v>0.6166666666666667</v>
+      </c>
+      <c r="G121" t="s">
         <v>130</v>
       </c>
-      <c r="F121">
+      <c r="H121">
         <v>120</v>
       </c>
-      <c r="G121" t="s">
-        <v>24</v>
-      </c>
       <c r="I121" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K121" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
         <v>7</v>
       </c>
@@ -4184,22 +4941,28 @@
         <v>104</v>
       </c>
       <c r="D122" s="3">
+        <v>40066.445138888892</v>
+      </c>
+      <c r="E122" s="3">
         <v>40066</v>
       </c>
-      <c r="E122" t="s">
+      <c r="F122" s="5">
+        <v>0.44513888888888886</v>
+      </c>
+      <c r="G122" t="s">
         <v>131</v>
       </c>
-      <c r="F122">
+      <c r="H122">
         <v>121</v>
       </c>
-      <c r="G122" t="s">
-        <v>24</v>
-      </c>
       <c r="I122" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K122" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
         <v>7</v>
       </c>
@@ -4210,22 +4973,28 @@
         <v>105</v>
       </c>
       <c r="D123" s="3">
+        <v>40072.805555555555</v>
+      </c>
+      <c r="E123" s="3">
         <v>40072</v>
       </c>
-      <c r="E123" t="s">
+      <c r="F123" s="5">
+        <v>0.80555555555555558</v>
+      </c>
+      <c r="G123" t="s">
         <v>132</v>
       </c>
-      <c r="F123">
+      <c r="H123">
         <v>122</v>
       </c>
-      <c r="G123" t="s">
-        <v>24</v>
-      </c>
       <c r="I123" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K123" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
         <v>7</v>
       </c>
@@ -4236,22 +5005,28 @@
         <v>106</v>
       </c>
       <c r="D124" s="3">
+        <v>40100.315972222219</v>
+      </c>
+      <c r="E124" s="3">
         <v>40100</v>
       </c>
-      <c r="E124" t="s">
+      <c r="F124" s="5">
+        <v>0.31597222222222221</v>
+      </c>
+      <c r="G124" t="s">
         <v>133</v>
       </c>
-      <c r="F124">
+      <c r="H124">
         <v>123</v>
       </c>
-      <c r="G124" t="s">
-        <v>24</v>
-      </c>
       <c r="I124" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K124" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
         <v>7</v>
       </c>
@@ -4262,22 +5037,28 @@
         <v>104</v>
       </c>
       <c r="D125" s="3">
+        <v>40051.602083333331</v>
+      </c>
+      <c r="E125" s="3">
         <v>40051</v>
       </c>
-      <c r="E125" t="s">
+      <c r="F125" s="5">
+        <v>0.6020833333333333</v>
+      </c>
+      <c r="G125" t="s">
         <v>134</v>
       </c>
-      <c r="F125">
+      <c r="H125">
         <v>124</v>
       </c>
-      <c r="G125" t="s">
-        <v>24</v>
-      </c>
       <c r="I125" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K125" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
         <v>7</v>
       </c>
@@ -4288,22 +5069,28 @@
         <v>105</v>
       </c>
       <c r="D126" s="3">
+        <v>40058.609027777777</v>
+      </c>
+      <c r="E126" s="3">
         <v>40058</v>
       </c>
-      <c r="E126" t="s">
+      <c r="F126" s="5">
+        <v>0.60902777777777772</v>
+      </c>
+      <c r="G126" t="s">
         <v>135</v>
       </c>
-      <c r="F126">
+      <c r="H126">
         <v>125</v>
       </c>
-      <c r="G126" t="s">
-        <v>24</v>
-      </c>
       <c r="I126" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K126" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
         <v>7</v>
       </c>
@@ -4314,22 +5101,28 @@
         <v>106</v>
       </c>
       <c r="D127" s="3">
+        <v>40087.541666666664</v>
+      </c>
+      <c r="E127" s="3">
         <v>40087</v>
       </c>
-      <c r="E127" t="s">
+      <c r="F127" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G127" t="s">
         <v>136</v>
       </c>
-      <c r="F127">
+      <c r="H127">
         <v>126</v>
       </c>
-      <c r="G127" t="s">
-        <v>24</v>
-      </c>
       <c r="I127" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K127" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
         <v>7</v>
       </c>
@@ -4340,22 +5133,28 @@
         <v>107</v>
       </c>
       <c r="D128" s="3">
+        <v>39974.916666666664</v>
+      </c>
+      <c r="E128" s="3">
         <v>39974</v>
       </c>
-      <c r="E128" t="s">
+      <c r="F128" s="5">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="G128" t="s">
         <v>137</v>
       </c>
-      <c r="F128">
+      <c r="H128">
         <v>127</v>
       </c>
-      <c r="G128" t="s">
-        <v>24</v>
-      </c>
       <c r="I128" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K128" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
         <v>7</v>
       </c>
@@ -4366,22 +5165,28 @@
         <v>108</v>
       </c>
       <c r="D129" s="3">
+        <v>40002.552083333336</v>
+      </c>
+      <c r="E129" s="3">
         <v>40002</v>
       </c>
-      <c r="E129" t="s">
+      <c r="F129" s="5">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="G129" t="s">
         <v>138</v>
       </c>
-      <c r="F129">
+      <c r="H129">
         <v>128</v>
       </c>
-      <c r="G129" t="s">
-        <v>24</v>
-      </c>
       <c r="I129" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K129" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
         <v>7</v>
       </c>
@@ -4392,22 +5197,28 @@
         <v>104</v>
       </c>
       <c r="D130" s="3">
+        <v>40232.224305555559</v>
+      </c>
+      <c r="E130" s="3">
         <v>40232</v>
       </c>
-      <c r="E130" t="s">
+      <c r="F130" s="5">
+        <v>0.22430555555555556</v>
+      </c>
+      <c r="G130" t="s">
         <v>139</v>
       </c>
-      <c r="F130">
+      <c r="H130">
         <v>129</v>
       </c>
-      <c r="G130" t="s">
-        <v>24</v>
-      </c>
       <c r="I130" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K130" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
         <v>7</v>
       </c>
@@ -4418,22 +5229,28 @@
         <v>105</v>
       </c>
       <c r="D131" s="3">
+        <v>40239.770833333336</v>
+      </c>
+      <c r="E131" s="3">
         <v>40239</v>
       </c>
-      <c r="E131" t="s">
+      <c r="F131" s="5">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="G131" t="s">
         <v>140</v>
       </c>
-      <c r="F131">
+      <c r="H131">
         <v>130</v>
       </c>
-      <c r="G131" t="s">
-        <v>24</v>
-      </c>
       <c r="I131" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K131" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
         <v>7</v>
       </c>
@@ -4444,22 +5261,28 @@
         <v>106</v>
       </c>
       <c r="D132" s="3">
+        <v>40267.443749999999</v>
+      </c>
+      <c r="E132" s="3">
         <v>40267</v>
       </c>
-      <c r="E132" t="s">
+      <c r="F132" s="5">
+        <v>0.44374999999999998</v>
+      </c>
+      <c r="G132" t="s">
         <v>141</v>
       </c>
-      <c r="F132">
+      <c r="H132">
         <v>131</v>
       </c>
-      <c r="G132" t="s">
-        <v>24</v>
-      </c>
       <c r="I132" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K132" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
         <v>7</v>
       </c>
@@ -4470,22 +5293,28 @@
         <v>108</v>
       </c>
       <c r="D133" s="3">
+        <v>39660.20208333333</v>
+      </c>
+      <c r="E133" s="3">
         <v>39660</v>
       </c>
-      <c r="E133" t="s">
+      <c r="F133" s="5">
+        <v>0.20208333333333334</v>
+      </c>
+      <c r="G133" t="s">
         <v>142</v>
       </c>
-      <c r="F133">
+      <c r="H133">
         <v>132</v>
       </c>
-      <c r="G133" t="s">
-        <v>24</v>
-      </c>
       <c r="I133" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K133" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
         <v>7</v>
       </c>
@@ -4496,22 +5325,28 @@
         <v>108</v>
       </c>
       <c r="D134" s="3">
+        <v>39679.798611111109</v>
+      </c>
+      <c r="E134" s="3">
         <v>39679</v>
       </c>
-      <c r="E134" t="s">
+      <c r="F134" s="5">
+        <v>0.79861111111111116</v>
+      </c>
+      <c r="G134" t="s">
         <v>143</v>
       </c>
-      <c r="F134">
+      <c r="H134">
         <v>133</v>
       </c>
-      <c r="G134" t="s">
-        <v>24</v>
-      </c>
       <c r="I134" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K134" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
         <v>7</v>
       </c>
@@ -4522,22 +5357,28 @@
         <v>109</v>
       </c>
       <c r="D135" s="3">
+        <v>39707.402083333334</v>
+      </c>
+      <c r="E135" s="3">
         <v>39707</v>
       </c>
-      <c r="E135" t="s">
+      <c r="F135" s="5">
+        <v>0.40208333333333335</v>
+      </c>
+      <c r="G135" t="s">
         <v>144</v>
       </c>
-      <c r="F135">
+      <c r="H135">
         <v>134</v>
       </c>
-      <c r="G135" t="s">
-        <v>24</v>
-      </c>
       <c r="I135" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K135" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
         <v>7</v>
       </c>
@@ -4548,22 +5389,28 @@
         <v>109</v>
       </c>
       <c r="D136" s="3">
+        <v>39716.834027777775</v>
+      </c>
+      <c r="E136" s="3">
         <v>39716</v>
       </c>
-      <c r="E136" t="s">
+      <c r="F136" s="5">
+        <v>0.83402777777777781</v>
+      </c>
+      <c r="G136" t="s">
         <v>145</v>
       </c>
-      <c r="F136">
+      <c r="H136">
         <v>135</v>
       </c>
-      <c r="G136" t="s">
-        <v>24</v>
-      </c>
       <c r="I136" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K136" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
         <v>7</v>
       </c>
@@ -4574,22 +5421,28 @@
         <v>103</v>
       </c>
       <c r="D137" s="3">
+        <v>40060.870833333334</v>
+      </c>
+      <c r="E137" s="3">
         <v>40060</v>
       </c>
-      <c r="E137" t="s">
+      <c r="F137" s="5">
+        <v>0.87083333333333335</v>
+      </c>
+      <c r="G137" t="s">
         <v>146</v>
       </c>
-      <c r="F137">
+      <c r="H137">
         <v>136</v>
       </c>
-      <c r="G137" t="s">
-        <v>24</v>
-      </c>
       <c r="I137" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K137" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
         <v>7</v>
       </c>
@@ -4600,22 +5453,28 @@
         <v>104</v>
       </c>
       <c r="D138" s="3">
+        <v>40067.836111111108</v>
+      </c>
+      <c r="E138" s="3">
         <v>40067</v>
       </c>
-      <c r="E138" t="s">
+      <c r="F138" s="5">
+        <v>0.83611111111111114</v>
+      </c>
+      <c r="G138" t="s">
         <v>147</v>
       </c>
-      <c r="F138">
+      <c r="H138">
         <v>137</v>
       </c>
-      <c r="G138" t="s">
-        <v>24</v>
-      </c>
       <c r="I138" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K138" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
         <v>7</v>
       </c>
@@ -4626,22 +5485,28 @@
         <v>105</v>
       </c>
       <c r="D139" s="3">
+        <v>40073.481944444444</v>
+      </c>
+      <c r="E139" s="3">
         <v>40073</v>
       </c>
-      <c r="E139" t="s">
+      <c r="F139" s="5">
+        <v>0.48194444444444445</v>
+      </c>
+      <c r="G139" t="s">
         <v>148</v>
       </c>
-      <c r="F139">
+      <c r="H139">
         <v>138</v>
       </c>
-      <c r="G139" t="s">
-        <v>24</v>
-      </c>
       <c r="I139" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K139" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
         <v>7</v>
       </c>
@@ -4652,22 +5517,28 @@
         <v>106</v>
       </c>
       <c r="D140" s="3">
+        <v>40101.775694444441</v>
+      </c>
+      <c r="E140" s="3">
         <v>40101</v>
       </c>
-      <c r="E140" t="s">
+      <c r="F140" s="5">
+        <v>0.77569444444444446</v>
+      </c>
+      <c r="G140" t="s">
         <v>149</v>
       </c>
-      <c r="F140">
+      <c r="H140">
         <v>139</v>
       </c>
-      <c r="G140" t="s">
-        <v>24</v>
-      </c>
       <c r="I140" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K140" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
         <v>7</v>
       </c>
@@ -4678,22 +5549,28 @@
         <v>104</v>
       </c>
       <c r="D141" s="3">
+        <v>40052.120833333334</v>
+      </c>
+      <c r="E141" s="3">
         <v>40052</v>
       </c>
-      <c r="E141" t="s">
+      <c r="F141" s="5">
+        <v>0.12083333333333333</v>
+      </c>
+      <c r="G141" t="s">
         <v>150</v>
       </c>
-      <c r="F141">
+      <c r="H141">
         <v>140</v>
       </c>
-      <c r="G141" t="s">
-        <v>24</v>
-      </c>
       <c r="I141" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K141" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
         <v>7</v>
       </c>
@@ -4706,20 +5583,26 @@
       <c r="D142" s="3">
         <v>40059</v>
       </c>
-      <c r="E142" t="s">
+      <c r="E142" s="3">
+        <v>40059</v>
+      </c>
+      <c r="F142" s="5">
+        <v>0</v>
+      </c>
+      <c r="G142" t="s">
         <v>151</v>
       </c>
-      <c r="F142">
+      <c r="H142">
         <v>141</v>
       </c>
-      <c r="G142" t="s">
-        <v>24</v>
-      </c>
       <c r="I142" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K142" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
         <v>7</v>
       </c>
@@ -4730,22 +5613,28 @@
         <v>106</v>
       </c>
       <c r="D143" s="3">
+        <v>40088.856944444444</v>
+      </c>
+      <c r="E143" s="3">
         <v>40088</v>
       </c>
-      <c r="E143" t="s">
+      <c r="F143" s="5">
+        <v>0.8569444444444444</v>
+      </c>
+      <c r="G143" t="s">
         <v>152</v>
       </c>
-      <c r="F143">
+      <c r="H143">
         <v>142</v>
       </c>
-      <c r="G143" t="s">
-        <v>24</v>
-      </c>
       <c r="I143" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K143" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
         <v>7</v>
       </c>
@@ -4756,22 +5645,28 @@
         <v>107</v>
       </c>
       <c r="D144" s="3">
+        <v>39975.402777777781</v>
+      </c>
+      <c r="E144" s="3">
         <v>39975</v>
       </c>
-      <c r="E144" t="s">
+      <c r="F144" s="5">
+        <v>0.40277777777777779</v>
+      </c>
+      <c r="G144" t="s">
         <v>153</v>
       </c>
-      <c r="F144">
+      <c r="H144">
         <v>143</v>
       </c>
-      <c r="G144" t="s">
-        <v>24</v>
-      </c>
       <c r="I144" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K144" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
         <v>7</v>
       </c>
@@ -4782,22 +5677,28 @@
         <v>108</v>
       </c>
       <c r="D145" s="3">
+        <v>40003.745138888888</v>
+      </c>
+      <c r="E145" s="3">
         <v>40003</v>
       </c>
-      <c r="E145" t="s">
+      <c r="F145" s="5">
+        <v>0.74513888888888891</v>
+      </c>
+      <c r="G145" t="s">
         <v>154</v>
       </c>
-      <c r="F145">
+      <c r="H145">
         <v>144</v>
       </c>
-      <c r="G145" t="s">
-        <v>24</v>
-      </c>
       <c r="I145" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K145" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
         <v>7</v>
       </c>
@@ -4808,22 +5709,28 @@
         <v>104</v>
       </c>
       <c r="D146" s="3">
+        <v>40233.406944444447</v>
+      </c>
+      <c r="E146" s="3">
         <v>40233</v>
       </c>
-      <c r="E146" t="s">
+      <c r="F146" s="5">
+        <v>0.40694444444444444</v>
+      </c>
+      <c r="G146" t="s">
         <v>155</v>
       </c>
-      <c r="F146">
+      <c r="H146">
         <v>145</v>
       </c>
-      <c r="G146" t="s">
-        <v>24</v>
-      </c>
       <c r="I146" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K146" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
         <v>7</v>
       </c>
@@ -4834,22 +5741,28 @@
         <v>105</v>
       </c>
       <c r="D147" s="3">
+        <v>40240.206944444442</v>
+      </c>
+      <c r="E147" s="3">
         <v>40240</v>
       </c>
-      <c r="E147" t="s">
+      <c r="F147" s="5">
+        <v>0.20694444444444443</v>
+      </c>
+      <c r="G147" t="s">
         <v>156</v>
       </c>
-      <c r="F147">
+      <c r="H147">
         <v>146</v>
       </c>
-      <c r="G147" t="s">
-        <v>24</v>
-      </c>
       <c r="I147" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K147" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
         <v>7</v>
       </c>
@@ -4860,22 +5773,28 @@
         <v>106</v>
       </c>
       <c r="D148" s="3">
+        <v>40268.086805555555</v>
+      </c>
+      <c r="E148" s="3">
         <v>40268</v>
       </c>
-      <c r="E148" t="s">
+      <c r="F148" s="5">
+        <v>8.6805555555555552E-2</v>
+      </c>
+      <c r="G148" t="s">
         <v>157</v>
       </c>
-      <c r="F148">
+      <c r="H148">
         <v>147</v>
       </c>
-      <c r="G148" t="s">
-        <v>24</v>
-      </c>
       <c r="I148" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K148" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
         <v>7</v>
       </c>
@@ -4886,22 +5805,28 @@
         <v>108</v>
       </c>
       <c r="D149" s="3">
+        <v>39661.57916666667</v>
+      </c>
+      <c r="E149" s="3">
         <v>39661</v>
       </c>
-      <c r="E149" t="s">
+      <c r="F149" s="5">
+        <v>0.57916666666666672</v>
+      </c>
+      <c r="G149" t="s">
         <v>158</v>
       </c>
-      <c r="F149">
+      <c r="H149">
         <v>148</v>
       </c>
-      <c r="G149" t="s">
-        <v>24</v>
-      </c>
       <c r="I149" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K149" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
         <v>7</v>
       </c>
@@ -4912,22 +5837,28 @@
         <v>108</v>
       </c>
       <c r="D150" s="3">
+        <v>39680.385416666664</v>
+      </c>
+      <c r="E150" s="3">
         <v>39680</v>
       </c>
-      <c r="E150" t="s">
+      <c r="F150" s="5">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="G150" t="s">
         <v>159</v>
       </c>
-      <c r="F150">
+      <c r="H150">
         <v>149</v>
       </c>
-      <c r="G150" t="s">
-        <v>24</v>
-      </c>
       <c r="I150" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K150" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
         <v>7</v>
       </c>
@@ -4938,22 +5869,28 @@
         <v>109</v>
       </c>
       <c r="D151" s="3">
+        <v>39708.20416666667</v>
+      </c>
+      <c r="E151" s="3">
         <v>39708</v>
       </c>
-      <c r="E151" t="s">
+      <c r="F151" s="5">
+        <v>0.20416666666666666</v>
+      </c>
+      <c r="G151" t="s">
         <v>160</v>
       </c>
-      <c r="F151">
+      <c r="H151">
         <v>150</v>
       </c>
-      <c r="G151" t="s">
-        <v>24</v>
-      </c>
       <c r="I151" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K151" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
         <v>7</v>
       </c>
@@ -4964,22 +5901,28 @@
         <v>109</v>
       </c>
       <c r="D152" s="3">
+        <v>39717.546527777777</v>
+      </c>
+      <c r="E152" s="3">
         <v>39717</v>
       </c>
-      <c r="E152" t="s">
+      <c r="F152" s="5">
+        <v>0.54652777777777772</v>
+      </c>
+      <c r="G152" t="s">
         <v>161</v>
       </c>
-      <c r="F152">
+      <c r="H152">
         <v>151</v>
       </c>
-      <c r="G152" t="s">
-        <v>24</v>
-      </c>
       <c r="I152" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K152" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
         <v>7</v>
       </c>
@@ -4990,22 +5933,28 @@
         <v>103</v>
       </c>
       <c r="D153" s="3">
+        <v>40061.386111111111</v>
+      </c>
+      <c r="E153" s="3">
         <v>40061</v>
       </c>
-      <c r="E153" t="s">
+      <c r="F153" s="5">
+        <v>0.38611111111111113</v>
+      </c>
+      <c r="G153" t="s">
         <v>162</v>
       </c>
-      <c r="F153">
+      <c r="H153">
         <v>152</v>
       </c>
-      <c r="G153" t="s">
-        <v>24</v>
-      </c>
       <c r="I153" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K153" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
         <v>7</v>
       </c>
@@ -5016,22 +5965,28 @@
         <v>104</v>
       </c>
       <c r="D154" s="3">
+        <v>40068.820833333331</v>
+      </c>
+      <c r="E154" s="3">
         <v>40068</v>
       </c>
-      <c r="E154" t="s">
+      <c r="F154" s="5">
+        <v>0.8208333333333333</v>
+      </c>
+      <c r="G154" t="s">
         <v>163</v>
       </c>
-      <c r="F154">
+      <c r="H154">
         <v>153</v>
       </c>
-      <c r="G154" t="s">
-        <v>24</v>
-      </c>
       <c r="I154" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K154" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
         <v>7</v>
       </c>
@@ -5042,22 +5997,28 @@
         <v>105</v>
       </c>
       <c r="D155" s="3">
+        <v>40074.400000000001</v>
+      </c>
+      <c r="E155" s="3">
         <v>40074</v>
       </c>
-      <c r="E155" t="s">
+      <c r="F155" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="G155" t="s">
         <v>164</v>
       </c>
-      <c r="F155">
+      <c r="H155">
         <v>154</v>
       </c>
-      <c r="G155" t="s">
-        <v>24</v>
-      </c>
       <c r="I155" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K155" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
         <v>7</v>
       </c>
@@ -5068,22 +6029,28 @@
         <v>106</v>
       </c>
       <c r="D156" s="3">
+        <v>40102.99722222222</v>
+      </c>
+      <c r="E156" s="3">
         <v>40102</v>
       </c>
-      <c r="E156" t="s">
+      <c r="F156" s="5">
+        <v>0.99722222222222223</v>
+      </c>
+      <c r="G156" t="s">
         <v>165</v>
       </c>
-      <c r="F156">
+      <c r="H156">
         <v>155</v>
       </c>
-      <c r="G156" t="s">
-        <v>24</v>
-      </c>
       <c r="I156" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K156" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
         <v>7</v>
       </c>
@@ -5094,22 +6061,28 @@
         <v>104</v>
       </c>
       <c r="D157" s="3">
+        <v>40053.820138888892</v>
+      </c>
+      <c r="E157" s="3">
         <v>40053</v>
       </c>
-      <c r="E157" t="s">
+      <c r="F157" s="5">
+        <v>0.82013888888888886</v>
+      </c>
+      <c r="G157" t="s">
         <v>166</v>
       </c>
-      <c r="F157">
+      <c r="H157">
         <v>156</v>
       </c>
-      <c r="G157" t="s">
-        <v>24</v>
-      </c>
       <c r="I157" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K157" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
         <v>7</v>
       </c>
@@ -5120,22 +6093,28 @@
         <v>105</v>
       </c>
       <c r="D158" s="3">
+        <v>40060.786805555559</v>
+      </c>
+      <c r="E158" s="3">
         <v>40060</v>
       </c>
-      <c r="E158" t="s">
+      <c r="F158" s="5">
+        <v>0.78680555555555554</v>
+      </c>
+      <c r="G158" t="s">
         <v>167</v>
       </c>
-      <c r="F158">
+      <c r="H158">
         <v>157</v>
       </c>
-      <c r="G158" t="s">
-        <v>24</v>
-      </c>
       <c r="I158" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K158" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
         <v>7</v>
       </c>
@@ -5146,22 +6125,28 @@
         <v>106</v>
       </c>
       <c r="D159" s="3">
+        <v>40089.249305555553</v>
+      </c>
+      <c r="E159" s="3">
         <v>40089</v>
       </c>
-      <c r="E159" t="s">
+      <c r="F159" s="5">
+        <v>0.24930555555555556</v>
+      </c>
+      <c r="G159" t="s">
         <v>168</v>
       </c>
-      <c r="F159">
+      <c r="H159">
         <v>158</v>
       </c>
-      <c r="G159" t="s">
-        <v>24</v>
-      </c>
       <c r="I159" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K159" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
         <v>7</v>
       </c>
@@ -5172,22 +6157,28 @@
         <v>107</v>
       </c>
       <c r="D160" s="3">
+        <v>39976.613194444442</v>
+      </c>
+      <c r="E160" s="3">
         <v>39976</v>
       </c>
-      <c r="E160" t="s">
+      <c r="F160" s="5">
+        <v>0.61319444444444449</v>
+      </c>
+      <c r="G160" t="s">
         <v>169</v>
       </c>
-      <c r="F160">
+      <c r="H160">
         <v>159</v>
       </c>
-      <c r="G160" t="s">
-        <v>24</v>
-      </c>
       <c r="I160" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K160" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
         <v>7</v>
       </c>
@@ -5198,22 +6189,28 @@
         <v>108</v>
       </c>
       <c r="D161" s="3">
+        <v>40004.704861111109</v>
+      </c>
+      <c r="E161" s="3">
         <v>40004</v>
       </c>
-      <c r="E161" t="s">
+      <c r="F161" s="5">
+        <v>0.70486111111111116</v>
+      </c>
+      <c r="G161" t="s">
         <v>170</v>
       </c>
-      <c r="F161">
+      <c r="H161">
         <v>160</v>
       </c>
-      <c r="G161" t="s">
-        <v>24</v>
-      </c>
       <c r="I161" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K161" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
         <v>7</v>
       </c>
@@ -5224,22 +6221,28 @@
         <v>104</v>
       </c>
       <c r="D162" s="3">
+        <v>40234.884027777778</v>
+      </c>
+      <c r="E162" s="3">
         <v>40234</v>
       </c>
-      <c r="E162" t="s">
+      <c r="F162" s="5">
+        <v>0.88402777777777775</v>
+      </c>
+      <c r="G162" t="s">
         <v>171</v>
       </c>
-      <c r="F162">
+      <c r="H162">
         <v>161</v>
       </c>
-      <c r="G162" t="s">
-        <v>24</v>
-      </c>
       <c r="I162" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K162" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
         <v>7</v>
       </c>
@@ -5250,22 +6253,28 @@
         <v>105</v>
       </c>
       <c r="D163" s="3">
+        <v>40241.343055555553</v>
+      </c>
+      <c r="E163" s="3">
         <v>40241</v>
       </c>
-      <c r="E163" t="s">
+      <c r="F163" s="5">
+        <v>0.34305555555555556</v>
+      </c>
+      <c r="G163" t="s">
         <v>172</v>
       </c>
-      <c r="F163">
+      <c r="H163">
         <v>162</v>
       </c>
-      <c r="G163" t="s">
-        <v>24</v>
-      </c>
       <c r="I163" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K163" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
         <v>7</v>
       </c>
@@ -5276,22 +6285,28 @@
         <v>106</v>
       </c>
       <c r="D164" s="3">
+        <v>40269.011111111111</v>
+      </c>
+      <c r="E164" s="3">
         <v>40269</v>
       </c>
-      <c r="E164" t="s">
+      <c r="F164" s="5">
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="G164" t="s">
         <v>173</v>
       </c>
-      <c r="F164">
+      <c r="H164">
         <v>163</v>
       </c>
-      <c r="G164" t="s">
-        <v>24</v>
-      </c>
       <c r="I164" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K164" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
         <v>7</v>
       </c>
@@ -5302,22 +6317,28 @@
         <v>108</v>
       </c>
       <c r="D165" s="3">
+        <v>39662.571527777778</v>
+      </c>
+      <c r="E165" s="3">
         <v>39662</v>
       </c>
-      <c r="E165" t="s">
+      <c r="F165" s="5">
+        <v>0.57152777777777775</v>
+      </c>
+      <c r="G165" t="s">
         <v>174</v>
       </c>
-      <c r="F165">
+      <c r="H165">
         <v>164</v>
       </c>
-      <c r="G165" t="s">
-        <v>24</v>
-      </c>
       <c r="I165" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K165" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
         <v>7</v>
       </c>
@@ -5328,22 +6349,28 @@
         <v>108</v>
       </c>
       <c r="D166" s="3">
+        <v>39681.677083333336</v>
+      </c>
+      <c r="E166" s="3">
         <v>39681</v>
       </c>
-      <c r="E166" t="s">
+      <c r="F166" s="5">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="G166" t="s">
         <v>175</v>
       </c>
-      <c r="F166">
+      <c r="H166">
         <v>165</v>
       </c>
-      <c r="G166" t="s">
-        <v>24</v>
-      </c>
       <c r="I166" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K166" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
         <v>7</v>
       </c>
@@ -5354,22 +6381,28 @@
         <v>109</v>
       </c>
       <c r="D167" s="3">
+        <v>39709.981249999997</v>
+      </c>
+      <c r="E167" s="3">
         <v>39709</v>
       </c>
-      <c r="E167" t="s">
+      <c r="F167" s="5">
+        <v>0.98124999999999996</v>
+      </c>
+      <c r="G167" t="s">
         <v>176</v>
       </c>
-      <c r="F167">
+      <c r="H167">
         <v>166</v>
       </c>
-      <c r="G167" t="s">
-        <v>24</v>
-      </c>
       <c r="I167" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K167" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
         <v>7</v>
       </c>
@@ -5380,22 +6413,28 @@
         <v>109</v>
       </c>
       <c r="D168" s="3">
+        <v>39718.583333333336</v>
+      </c>
+      <c r="E168" s="3">
         <v>39718</v>
       </c>
-      <c r="E168" t="s">
+      <c r="F168" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="G168" t="s">
         <v>177</v>
       </c>
-      <c r="F168">
+      <c r="H168">
         <v>167</v>
       </c>
-      <c r="G168" t="s">
-        <v>24</v>
-      </c>
       <c r="I168" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K168" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
         <v>7</v>
       </c>
@@ -5406,22 +6445,28 @@
         <v>103</v>
       </c>
       <c r="D169" s="3">
+        <v>40062.036805555559</v>
+      </c>
+      <c r="E169" s="3">
         <v>40062</v>
       </c>
-      <c r="E169" t="s">
+      <c r="F169" s="5">
+        <v>3.6805555555555557E-2</v>
+      </c>
+      <c r="G169" t="s">
         <v>178</v>
       </c>
-      <c r="F169">
+      <c r="H169">
         <v>168</v>
       </c>
-      <c r="G169" t="s">
-        <v>24</v>
-      </c>
       <c r="I169" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K169" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
         <v>7</v>
       </c>
@@ -5432,22 +6477,28 @@
         <v>104</v>
       </c>
       <c r="D170" s="3">
+        <v>40069.272222222222</v>
+      </c>
+      <c r="E170" s="3">
         <v>40069</v>
       </c>
-      <c r="E170" t="s">
+      <c r="F170" s="5">
+        <v>0.2722222222222222</v>
+      </c>
+      <c r="G170" t="s">
         <v>179</v>
       </c>
-      <c r="F170">
+      <c r="H170">
         <v>169</v>
       </c>
-      <c r="G170" t="s">
-        <v>24</v>
-      </c>
       <c r="I170" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K170" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
         <v>7</v>
       </c>
@@ -5458,22 +6509,28 @@
         <v>105</v>
       </c>
       <c r="D171" s="3">
+        <v>40075.305555555555</v>
+      </c>
+      <c r="E171" s="3">
         <v>40075</v>
       </c>
-      <c r="E171" t="s">
+      <c r="F171" s="5">
+        <v>0.30555555555555558</v>
+      </c>
+      <c r="G171" t="s">
         <v>180</v>
       </c>
-      <c r="F171">
+      <c r="H171">
         <v>170</v>
       </c>
-      <c r="G171" t="s">
-        <v>24</v>
-      </c>
       <c r="I171" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K171" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
         <v>7</v>
       </c>
@@ -5484,22 +6541,28 @@
         <v>106</v>
       </c>
       <c r="D172" s="3">
+        <v>40103.209027777775</v>
+      </c>
+      <c r="E172" s="3">
         <v>40103</v>
       </c>
-      <c r="E172" t="s">
+      <c r="F172" s="5">
+        <v>0.20902777777777778</v>
+      </c>
+      <c r="G172" t="s">
         <v>181</v>
       </c>
-      <c r="F172">
+      <c r="H172">
         <v>171</v>
       </c>
-      <c r="G172" t="s">
-        <v>24</v>
-      </c>
       <c r="I172" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K172" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
         <v>7</v>
       </c>
@@ -5510,22 +6573,28 @@
         <v>104</v>
       </c>
       <c r="D173" s="3">
+        <v>40054.448611111111</v>
+      </c>
+      <c r="E173" s="3">
         <v>40054</v>
       </c>
-      <c r="E173" t="s">
+      <c r="F173" s="5">
+        <v>0.44861111111111113</v>
+      </c>
+      <c r="G173" t="s">
         <v>182</v>
       </c>
-      <c r="F173">
+      <c r="H173">
         <v>172</v>
       </c>
-      <c r="G173" t="s">
-        <v>24</v>
-      </c>
       <c r="I173" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K173" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
         <v>7</v>
       </c>
@@ -5536,22 +6605,28 @@
         <v>105</v>
       </c>
       <c r="D174" s="3">
+        <v>40061.104166666664</v>
+      </c>
+      <c r="E174" s="3">
         <v>40061</v>
       </c>
-      <c r="E174" t="s">
+      <c r="F174" s="5">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="G174" t="s">
         <v>183</v>
       </c>
-      <c r="F174">
+      <c r="H174">
         <v>173</v>
       </c>
-      <c r="G174" t="s">
-        <v>24</v>
-      </c>
       <c r="I174" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K174" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
         <v>7</v>
       </c>
@@ -5562,22 +6637,28 @@
         <v>106</v>
       </c>
       <c r="D175" s="3">
+        <v>40090.363888888889</v>
+      </c>
+      <c r="E175" s="3">
         <v>40090</v>
       </c>
-      <c r="E175" t="s">
+      <c r="F175" s="5">
+        <v>0.36388888888888887</v>
+      </c>
+      <c r="G175" t="s">
         <v>184</v>
       </c>
-      <c r="F175">
+      <c r="H175">
         <v>174</v>
       </c>
-      <c r="G175" t="s">
-        <v>24</v>
-      </c>
       <c r="I175" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K175" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
         <v>7</v>
       </c>
@@ -5588,22 +6669,28 @@
         <v>107</v>
       </c>
       <c r="D176" s="3">
+        <v>39977.989583333336</v>
+      </c>
+      <c r="E176" s="3">
         <v>39977</v>
       </c>
-      <c r="E176" t="s">
+      <c r="F176" s="5">
+        <v>0.98958333333333337</v>
+      </c>
+      <c r="G176" t="s">
         <v>185</v>
       </c>
-      <c r="F176">
+      <c r="H176">
         <v>175</v>
       </c>
-      <c r="G176" t="s">
-        <v>24</v>
-      </c>
       <c r="I176" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K176" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
         <v>7</v>
       </c>
@@ -5614,22 +6701,28 @@
         <v>108</v>
       </c>
       <c r="D177" s="3">
+        <v>40005.290972222225</v>
+      </c>
+      <c r="E177" s="3">
         <v>40005</v>
       </c>
-      <c r="E177" t="s">
+      <c r="F177" s="5">
+        <v>0.29097222222222224</v>
+      </c>
+      <c r="G177" t="s">
         <v>186</v>
       </c>
-      <c r="F177">
+      <c r="H177">
         <v>176</v>
       </c>
-      <c r="G177" t="s">
-        <v>24</v>
-      </c>
       <c r="I177" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K177" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
         <v>7</v>
       </c>
@@ -5640,22 +6733,28 @@
         <v>104</v>
       </c>
       <c r="D178" s="3">
+        <v>40235.545138888891</v>
+      </c>
+      <c r="E178" s="3">
         <v>40235</v>
       </c>
-      <c r="E178" t="s">
+      <c r="F178" s="5">
+        <v>0.54513888888888884</v>
+      </c>
+      <c r="G178" t="s">
         <v>187</v>
       </c>
-      <c r="F178">
+      <c r="H178">
         <v>177</v>
       </c>
-      <c r="G178" t="s">
-        <v>24</v>
-      </c>
       <c r="I178" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K178" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
         <v>7</v>
       </c>
@@ -5666,22 +6765,28 @@
         <v>105</v>
       </c>
       <c r="D179" s="3">
+        <v>40242.678472222222</v>
+      </c>
+      <c r="E179" s="3">
         <v>40242</v>
       </c>
-      <c r="E179" t="s">
+      <c r="F179" s="5">
+        <v>0.67847222222222225</v>
+      </c>
+      <c r="G179" t="s">
         <v>188</v>
       </c>
-      <c r="F179">
+      <c r="H179">
         <v>178</v>
       </c>
-      <c r="G179" t="s">
-        <v>24</v>
-      </c>
       <c r="I179" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K179" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
         <v>7</v>
       </c>
@@ -5692,22 +6797,28 @@
         <v>106</v>
       </c>
       <c r="D180" s="3">
+        <v>40270.031944444447</v>
+      </c>
+      <c r="E180" s="3">
         <v>40270</v>
       </c>
-      <c r="E180" t="s">
+      <c r="F180" s="5">
+        <v>3.1944444444444442E-2</v>
+      </c>
+      <c r="G180" t="s">
         <v>189</v>
       </c>
-      <c r="F180">
+      <c r="H180">
         <v>179</v>
       </c>
-      <c r="G180" t="s">
-        <v>24</v>
-      </c>
       <c r="I180" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K180" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
         <v>7</v>
       </c>
@@ -5718,22 +6829,28 @@
         <v>108</v>
       </c>
       <c r="D181" s="3">
+        <v>39663.556250000001</v>
+      </c>
+      <c r="E181" s="3">
         <v>39663</v>
       </c>
-      <c r="E181" t="s">
+      <c r="F181" s="5">
+        <v>0.55625000000000002</v>
+      </c>
+      <c r="G181" t="s">
         <v>190</v>
       </c>
-      <c r="F181">
+      <c r="H181">
         <v>180</v>
       </c>
-      <c r="G181" t="s">
-        <v>24</v>
-      </c>
       <c r="I181" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K181" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
         <v>7</v>
       </c>
@@ -5744,22 +6861,28 @@
         <v>108</v>
       </c>
       <c r="D182" s="3">
+        <v>39682.769444444442</v>
+      </c>
+      <c r="E182" s="3">
         <v>39682</v>
       </c>
-      <c r="E182" t="s">
+      <c r="F182" s="5">
+        <v>0.76944444444444449</v>
+      </c>
+      <c r="G182" t="s">
         <v>191</v>
       </c>
-      <c r="F182">
+      <c r="H182">
         <v>181</v>
       </c>
-      <c r="G182" t="s">
-        <v>24</v>
-      </c>
       <c r="I182" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K182" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A183" t="s">
         <v>7</v>
       </c>
@@ -5770,22 +6893,28 @@
         <v>109</v>
       </c>
       <c r="D183" s="3">
+        <v>39710.155555555553</v>
+      </c>
+      <c r="E183" s="3">
         <v>39710</v>
       </c>
-      <c r="E183" t="s">
+      <c r="F183" s="5">
+        <v>0.15555555555555556</v>
+      </c>
+      <c r="G183" t="s">
         <v>192</v>
       </c>
-      <c r="F183">
+      <c r="H183">
         <v>182</v>
       </c>
-      <c r="G183" t="s">
-        <v>24</v>
-      </c>
       <c r="I183" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K183" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A184" t="s">
         <v>7</v>
       </c>
@@ -5796,22 +6925,28 @@
         <v>109</v>
       </c>
       <c r="D184" s="3">
+        <v>39719.254166666666</v>
+      </c>
+      <c r="E184" s="3">
         <v>39719</v>
       </c>
-      <c r="E184" t="s">
+      <c r="F184" s="5">
+        <v>0.25416666666666665</v>
+      </c>
+      <c r="G184" t="s">
         <v>193</v>
       </c>
-      <c r="F184">
+      <c r="H184">
         <v>183</v>
       </c>
-      <c r="G184" t="s">
-        <v>24</v>
-      </c>
       <c r="I184" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K184" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
         <v>7</v>
       </c>
@@ -5822,22 +6957,28 @@
         <v>103</v>
       </c>
       <c r="D185" s="3">
+        <v>40063.61041666667</v>
+      </c>
+      <c r="E185" s="3">
         <v>40063</v>
       </c>
-      <c r="E185" t="s">
+      <c r="F185" s="5">
+        <v>0.61041666666666672</v>
+      </c>
+      <c r="G185" t="s">
         <v>194</v>
       </c>
-      <c r="F185">
+      <c r="H185">
         <v>184</v>
       </c>
-      <c r="G185" t="s">
-        <v>24</v>
-      </c>
       <c r="I185" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K185" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A186" t="s">
         <v>7</v>
       </c>
@@ -5848,22 +6989,28 @@
         <v>104</v>
       </c>
       <c r="D186" s="3">
+        <v>40070.73333333333</v>
+      </c>
+      <c r="E186" s="3">
         <v>40070</v>
       </c>
-      <c r="E186" t="s">
+      <c r="F186" s="5">
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="G186" t="s">
         <v>195</v>
       </c>
-      <c r="F186">
+      <c r="H186">
         <v>185</v>
       </c>
-      <c r="G186" t="s">
-        <v>24</v>
-      </c>
       <c r="I186" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K186" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A187" t="s">
         <v>7</v>
       </c>
@@ -5874,22 +7021,28 @@
         <v>105</v>
       </c>
       <c r="D187" s="3">
+        <v>40076.063194444447</v>
+      </c>
+      <c r="E187" s="3">
         <v>40076</v>
       </c>
-      <c r="E187" t="s">
+      <c r="F187" s="5">
+        <v>6.3194444444444442E-2</v>
+      </c>
+      <c r="G187" t="s">
         <v>196</v>
       </c>
-      <c r="F187">
+      <c r="H187">
         <v>186</v>
       </c>
-      <c r="G187" t="s">
-        <v>24</v>
-      </c>
       <c r="I187" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K187" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A188" t="s">
         <v>7</v>
       </c>
@@ -5900,22 +7053,28 @@
         <v>106</v>
       </c>
       <c r="D188" s="3">
+        <v>40104.169444444444</v>
+      </c>
+      <c r="E188" s="3">
         <v>40104</v>
       </c>
-      <c r="E188" t="s">
+      <c r="F188" s="5">
+        <v>0.16944444444444445</v>
+      </c>
+      <c r="G188" t="s">
         <v>197</v>
       </c>
-      <c r="F188">
+      <c r="H188">
         <v>187</v>
       </c>
-      <c r="G188" t="s">
-        <v>24</v>
-      </c>
       <c r="I188" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K188" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A189" t="s">
         <v>7</v>
       </c>
@@ -5926,22 +7085,28 @@
         <v>104</v>
       </c>
       <c r="D189" s="3">
+        <v>40055.693055555559</v>
+      </c>
+      <c r="E189" s="3">
         <v>40055</v>
       </c>
-      <c r="E189" t="s">
+      <c r="F189" s="5">
+        <v>0.69305555555555554</v>
+      </c>
+      <c r="G189" t="s">
         <v>198</v>
       </c>
-      <c r="F189">
+      <c r="H189">
         <v>188</v>
       </c>
-      <c r="G189" t="s">
-        <v>24</v>
-      </c>
       <c r="I189" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K189" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A190" t="s">
         <v>7</v>
       </c>
@@ -5952,22 +7117,28 @@
         <v>105</v>
       </c>
       <c r="D190" s="3">
+        <v>40062.387499999997</v>
+      </c>
+      <c r="E190" s="3">
         <v>40062</v>
       </c>
-      <c r="E190" t="s">
+      <c r="F190" s="5">
+        <v>0.38750000000000001</v>
+      </c>
+      <c r="G190" t="s">
         <v>199</v>
       </c>
-      <c r="F190">
+      <c r="H190">
         <v>189</v>
       </c>
-      <c r="G190" t="s">
-        <v>24</v>
-      </c>
       <c r="I190" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K190" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
         <v>7</v>
       </c>
@@ -5978,22 +7149,28 @@
         <v>106</v>
       </c>
       <c r="D191" s="3">
+        <v>40091.24722222222</v>
+      </c>
+      <c r="E191" s="3">
         <v>40091</v>
       </c>
-      <c r="E191" t="s">
+      <c r="F191" s="5">
+        <v>0.24722222222222223</v>
+      </c>
+      <c r="G191" t="s">
         <v>200</v>
       </c>
-      <c r="F191">
+      <c r="H191">
         <v>190</v>
       </c>
-      <c r="G191" t="s">
-        <v>24</v>
-      </c>
       <c r="I191" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K191" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A192" t="s">
         <v>7</v>
       </c>
@@ -6004,22 +7181,28 @@
         <v>107</v>
       </c>
       <c r="D192" s="3">
+        <v>39978.906944444447</v>
+      </c>
+      <c r="E192" s="3">
         <v>39978</v>
       </c>
-      <c r="E192" t="s">
+      <c r="F192" s="5">
+        <v>0.90694444444444444</v>
+      </c>
+      <c r="G192" t="s">
         <v>201</v>
       </c>
-      <c r="F192">
+      <c r="H192">
         <v>191</v>
       </c>
-      <c r="G192" t="s">
-        <v>24</v>
-      </c>
       <c r="I192" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K192" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A193" t="s">
         <v>7</v>
       </c>
@@ -6030,22 +7213,28 @@
         <v>108</v>
       </c>
       <c r="D193" s="3">
+        <v>40006.427777777775</v>
+      </c>
+      <c r="E193" s="3">
         <v>40006</v>
       </c>
-      <c r="E193" t="s">
+      <c r="F193" s="5">
+        <v>0.42777777777777776</v>
+      </c>
+      <c r="G193" t="s">
         <v>202</v>
       </c>
-      <c r="F193">
+      <c r="H193">
         <v>192</v>
       </c>
-      <c r="G193" t="s">
-        <v>24</v>
-      </c>
       <c r="I193" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K193" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A194" t="s">
         <v>7</v>
       </c>
@@ -6056,22 +7245,28 @@
         <v>104</v>
       </c>
       <c r="D194" s="3">
+        <v>40236.459722222222</v>
+      </c>
+      <c r="E194" s="3">
         <v>40236</v>
       </c>
-      <c r="E194" t="s">
+      <c r="F194" s="5">
+        <v>0.4597222222222222</v>
+      </c>
+      <c r="G194" t="s">
         <v>203</v>
       </c>
-      <c r="F194">
+      <c r="H194">
         <v>193</v>
       </c>
-      <c r="G194" t="s">
-        <v>24</v>
-      </c>
       <c r="I194" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K194" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A195" t="s">
         <v>7</v>
       </c>
@@ -6082,22 +7277,28 @@
         <v>105</v>
       </c>
       <c r="D195" s="3">
+        <v>40243.629861111112</v>
+      </c>
+      <c r="E195" s="3">
         <v>40243</v>
       </c>
-      <c r="E195" t="s">
+      <c r="F195" s="5">
+        <v>0.62986111111111109</v>
+      </c>
+      <c r="G195" t="s">
         <v>204</v>
       </c>
-      <c r="F195">
+      <c r="H195">
         <v>194</v>
       </c>
-      <c r="G195" t="s">
-        <v>24</v>
-      </c>
       <c r="I195" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K195" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A196" t="s">
         <v>7</v>
       </c>
@@ -6108,22 +7309,28 @@
         <v>106</v>
       </c>
       <c r="D196" s="3">
+        <v>40271.229166666664</v>
+      </c>
+      <c r="E196" s="3">
         <v>40271</v>
       </c>
-      <c r="E196" t="s">
+      <c r="F196" s="5">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="G196" t="s">
         <v>205</v>
       </c>
-      <c r="F196">
+      <c r="H196">
         <v>195</v>
       </c>
-      <c r="G196" t="s">
-        <v>24</v>
-      </c>
       <c r="I196" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K196" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A197" t="s">
         <v>7</v>
       </c>
@@ -6134,22 +7341,28 @@
         <v>108</v>
       </c>
       <c r="D197" s="3">
+        <v>39664.136111111111</v>
+      </c>
+      <c r="E197" s="3">
         <v>39664</v>
       </c>
-      <c r="E197" t="s">
+      <c r="F197" s="5">
+        <v>0.1361111111111111</v>
+      </c>
+      <c r="G197" t="s">
         <v>206</v>
       </c>
-      <c r="F197">
+      <c r="H197">
         <v>196</v>
       </c>
-      <c r="G197" t="s">
-        <v>24</v>
-      </c>
       <c r="I197" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K197" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
         <v>7</v>
       </c>
@@ -6160,22 +7373,28 @@
         <v>108</v>
       </c>
       <c r="D198" s="3">
+        <v>39683.150694444441</v>
+      </c>
+      <c r="E198" s="3">
         <v>39683</v>
       </c>
-      <c r="E198" t="s">
+      <c r="F198" s="5">
+        <v>0.15069444444444444</v>
+      </c>
+      <c r="G198" t="s">
         <v>207</v>
       </c>
-      <c r="F198">
+      <c r="H198">
         <v>197</v>
       </c>
-      <c r="G198" t="s">
-        <v>24</v>
-      </c>
       <c r="I198" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K198" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A199" t="s">
         <v>7</v>
       </c>
@@ -6186,22 +7405,28 @@
         <v>109</v>
       </c>
       <c r="D199" s="3">
+        <v>39711.363888888889</v>
+      </c>
+      <c r="E199" s="3">
         <v>39711</v>
       </c>
-      <c r="E199" t="s">
+      <c r="F199" s="5">
+        <v>0.36388888888888887</v>
+      </c>
+      <c r="G199" t="s">
         <v>208</v>
       </c>
-      <c r="F199">
+      <c r="H199">
         <v>198</v>
       </c>
-      <c r="G199" t="s">
-        <v>24</v>
-      </c>
       <c r="I199" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K199" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
         <v>7</v>
       </c>
@@ -6212,22 +7437,28 @@
         <v>109</v>
       </c>
       <c r="D200" s="3">
+        <v>39720.844444444447</v>
+      </c>
+      <c r="E200" s="3">
         <v>39720</v>
       </c>
-      <c r="E200" t="s">
+      <c r="F200" s="5">
+        <v>0.84444444444444444</v>
+      </c>
+      <c r="G200" t="s">
         <v>209</v>
       </c>
-      <c r="F200">
+      <c r="H200">
         <v>199</v>
       </c>
-      <c r="G200" t="s">
-        <v>24</v>
-      </c>
       <c r="I200" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K200" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A201" t="s">
         <v>7</v>
       </c>
@@ -6238,22 +7469,28 @@
         <v>103</v>
       </c>
       <c r="D201" s="3">
+        <v>40064.378472222219</v>
+      </c>
+      <c r="E201" s="3">
         <v>40064</v>
       </c>
-      <c r="E201" t="s">
+      <c r="F201" s="5">
+        <v>0.37847222222222221</v>
+      </c>
+      <c r="G201" t="s">
         <v>210</v>
       </c>
-      <c r="F201">
+      <c r="H201">
         <v>200</v>
       </c>
-      <c r="G201" t="s">
-        <v>24</v>
-      </c>
       <c r="I201" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="K201" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A202" t="s">
         <v>7</v>
       </c>
@@ -6264,18 +7501,24 @@
         <v>104</v>
       </c>
       <c r="D202" s="3">
+        <v>40236.537499999999</v>
+      </c>
+      <c r="E202" s="3">
         <v>40236</v>
       </c>
-      <c r="E202" t="s">
+      <c r="F202" s="5">
+        <v>0.53749999999999998</v>
+      </c>
+      <c r="G202" t="s">
         <v>212</v>
       </c>
-      <c r="F202" t="s">
+      <c r="H202" t="s">
         <v>213</v>
       </c>
-      <c r="G202" t="s">
-        <v>24</v>
-      </c>
       <c r="I202" t="s">
+        <v>24</v>
+      </c>
+      <c r="K202" t="s">
         <v>25</v>
       </c>
     </row>
